--- a/datasets/promociones.xlsx
+++ b/datasets/promociones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/iH/Restaurantes/Evaluacion-Restaurantes/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{DF1690C7-2476-4494-9C98-99C5661191AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAB42097-1AC9-4AF3-8FC9-DBAC01701DB2}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{DF1690C7-2476-4494-9C98-99C5661191AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B3A1C39-9831-4621-9813-711C02102B4D}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{71D98540-18C3-47BE-99DA-916FB1449AC4}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="282">
   <si>
     <t>CLAVE</t>
   </si>
@@ -852,12 +852,6 @@
     <t>comentariodescuento</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>13005</t>
-  </si>
-  <si>
     <t>CAJA</t>
   </si>
   <si>
@@ -867,9 +861,6 @@
     <t>CORTESIA CUMPLEAÑOS</t>
   </si>
   <si>
-    <t>04001</t>
-  </si>
-  <si>
     <t>01-SERGIO MENDO</t>
   </si>
   <si>
@@ -882,19 +873,40 @@
     <t>CUMPLEAÑERO</t>
   </si>
   <si>
-    <t>17009</t>
-  </si>
-  <si>
     <t>AUTORIZO ROBERTO</t>
   </si>
   <si>
-    <t>18001</t>
-  </si>
-  <si>
-    <t>06001</t>
-  </si>
-  <si>
-    <t>03001</t>
+    <t>CHANGA SENCILLA</t>
+  </si>
+  <si>
+    <t>TACOS BISTEC</t>
+  </si>
+  <si>
+    <t>MARGARITA ARANDANO</t>
+  </si>
+  <si>
+    <t>MARGARITA CHAMOY</t>
+  </si>
+  <si>
+    <t>MARGARITA TAMARINDO</t>
+  </si>
+  <si>
+    <t>CLARA LITRO</t>
+  </si>
+  <si>
+    <t>COPA ECOLE NEBBIOLO CABERNET</t>
+  </si>
+  <si>
+    <t>COPA SMIRNOFF</t>
+  </si>
+  <si>
+    <t>COPA RED LABEL</t>
+  </si>
+  <si>
+    <t>WHISKY</t>
+  </si>
+  <si>
+    <t>##########</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1336,7 @@
   <dimension ref="A1:M216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10206,7 +10218,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA6E2A8-18D2-48E9-BDCE-88B94115AD81}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -10270,20 +10282,18 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="A2" s="3"/>
       <c r="B2" s="3">
         <v>1373</v>
       </c>
-      <c r="C2" s="4">
-        <v>45717.768541666679</v>
+      <c r="C2" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>264</v>
+      <c r="E2" s="3">
+        <v>13005</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>200</v>
@@ -10297,34 +10307,30 @@
       <c r="I2" s="3">
         <v>100</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="J2" s="3"/>
       <c r="K2" s="3">
         <v>51.7241</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" s="3">
         <v>1400</v>
       </c>
-      <c r="C3" s="4">
-        <v>45718.705300914124</v>
+      <c r="C3" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>264</v>
+      <c r="E3" s="3">
+        <v>13005</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>200</v>
@@ -10338,34 +10344,30 @@
       <c r="I3" s="3">
         <v>100</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="J3" s="3"/>
       <c r="K3" s="3">
         <v>51.7241</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="A4" s="3"/>
       <c r="B4" s="3">
         <v>1401</v>
       </c>
-      <c r="C4" s="4">
-        <v>45718.715347210877</v>
+      <c r="C4" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>264</v>
+      <c r="E4" s="3">
+        <v>13005</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>200</v>
@@ -10379,34 +10381,30 @@
       <c r="I4" s="3">
         <v>100</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="J4" s="3"/>
       <c r="K4" s="3">
         <v>51.7241</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>267</v>
-      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>1411</v>
       </c>
-      <c r="C5" s="4">
-        <v>45718.766493043862</v>
+      <c r="C5" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>268</v>
+      <c r="E5" s="3">
+        <v>4001</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>51</v>
@@ -10420,34 +10418,30 @@
       <c r="I5" s="3">
         <v>100</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="J5" s="3"/>
       <c r="K5" s="3">
         <v>171.55170000000001</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1483</v>
       </c>
-      <c r="C6" s="4">
-        <v>45724.785775463097</v>
+      <c r="C6" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>264</v>
+      <c r="E6" s="3">
+        <v>13005</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>200</v>
@@ -10461,34 +10455,30 @@
       <c r="I6" s="3">
         <v>100</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="J6" s="3"/>
       <c r="K6" s="3">
         <v>51.7241</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>1556</v>
       </c>
-      <c r="C7" s="4">
-        <v>45729.907546284609</v>
+      <c r="C7" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>264</v>
+      <c r="E7" s="3">
+        <v>13005</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>200</v>
@@ -10502,34 +10492,30 @@
       <c r="I7" s="3">
         <v>100</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="J7" s="3"/>
       <c r="K7" s="3">
         <v>51.7241</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>1580</v>
       </c>
-      <c r="C8" s="4">
-        <v>45731.764479166828</v>
+      <c r="C8" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>264</v>
+      <c r="E8" s="3">
+        <v>13005</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>200</v>
@@ -10543,34 +10529,30 @@
       <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="J8" s="3"/>
       <c r="K8" s="3">
         <v>51.7241</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>1637</v>
       </c>
-      <c r="C9" s="4">
-        <v>45732.88282406237</v>
+      <c r="C9" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>273</v>
+      <c r="E9" s="3">
+        <v>17009</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>211</v>
@@ -10584,34 +10566,30 @@
       <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="J9" s="3"/>
       <c r="K9" s="3">
         <v>25.862100000000002</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="A10" s="3"/>
       <c r="B10" s="3">
         <v>1637</v>
       </c>
-      <c r="C10" s="4">
-        <v>45732.88282406237</v>
+      <c r="C10" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>275</v>
+      <c r="E10" s="3">
+        <v>18001</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>61</v>
@@ -10625,75 +10603,67 @@
       <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="J10" s="3"/>
       <c r="K10" s="3">
         <v>42.241399999999999</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" s="3">
         <v>1637</v>
       </c>
-      <c r="C11" s="4">
-        <v>45732.88282406237</v>
+      <c r="C11" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>276</v>
+      <c r="E11" s="3">
+        <v>6001</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>87</v>
       </c>
       <c r="G11" s="3">
-        <v>168.10340000000002</v>
+        <v>168.10339999999999</v>
       </c>
       <c r="H11" s="3">
-        <v>168.10340000000002</v>
+        <v>168.10339999999999</v>
       </c>
       <c r="I11" s="3">
         <v>100</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="J11" s="3"/>
       <c r="K11" s="3">
-        <v>168.10340000000002</v>
+        <v>168.10339999999999</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="A12" s="3"/>
       <c r="B12" s="3">
         <v>1637</v>
       </c>
-      <c r="C12" s="4">
-        <v>45732.88282406237</v>
+      <c r="C12" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>277</v>
+      <c r="E12" s="3">
+        <v>3001</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>224</v>
@@ -10707,17 +10677,155 @@
       <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="J12" s="3"/>
       <c r="K12" s="3">
         <v>102.58620000000001</v>
       </c>
       <c r="L12" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>1687</v>
+      </c>
+      <c r="C13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>13005</v>
+      </c>
+      <c r="F13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G13">
+        <v>51.7241</v>
+      </c>
+      <c r="H13">
+        <v>51.7241</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="K13">
+        <v>51.7241</v>
+      </c>
+      <c r="L13" t="s">
+        <v>263</v>
+      </c>
+      <c r="M13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>1693</v>
+      </c>
+      <c r="C14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>13005</v>
+      </c>
+      <c r="F14" t="s">
+        <v>200</v>
+      </c>
+      <c r="G14">
+        <v>51.7241</v>
+      </c>
+      <c r="H14">
+        <v>51.7241</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="K14">
+        <v>51.7241</v>
+      </c>
+      <c r="L14" t="s">
+        <v>268</v>
+      </c>
+      <c r="M14" t="s">
         <v>269</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>274</v>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>1732</v>
+      </c>
+      <c r="C15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>13005</v>
+      </c>
+      <c r="F15" t="s">
+        <v>200</v>
+      </c>
+      <c r="G15">
+        <v>51.7241</v>
+      </c>
+      <c r="H15">
+        <v>51.7241</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
+      </c>
+      <c r="K15">
+        <v>51.7241</v>
+      </c>
+      <c r="L15" t="s">
+        <v>263</v>
+      </c>
+      <c r="M15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>1772</v>
+      </c>
+      <c r="C16" t="s">
+        <v>281</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>13005</v>
+      </c>
+      <c r="F16" t="s">
+        <v>200</v>
+      </c>
+      <c r="G16">
+        <v>51.7241</v>
+      </c>
+      <c r="H16">
+        <v>51.7241</v>
+      </c>
+      <c r="I16">
+        <v>100</v>
+      </c>
+      <c r="K16">
+        <v>51.7241</v>
+      </c>
+      <c r="L16" t="s">
+        <v>263</v>
+      </c>
+      <c r="M16" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -10727,10 +10835,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9515A6C-97CA-49DB-BA88-60DBFAE4AD64}">
-  <dimension ref="A1:M216"/>
+  <dimension ref="A1:M228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="H221" sqref="H221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10790,10 +10898,10 @@
         <v>189</v>
       </c>
       <c r="E2" s="2">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="F2" s="2">
-        <v>10395</v>
+        <v>16254</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -10811,7 +10919,7 @@
         <v>189</v>
       </c>
       <c r="L2" s="2">
-        <v>10395</v>
+        <v>16254</v>
       </c>
       <c r="M2" s="2">
         <v>16</v>
@@ -10831,10 +10939,10 @@
         <v>169</v>
       </c>
       <c r="E3" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2">
-        <v>1521</v>
+        <v>3380</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -10852,7 +10960,7 @@
         <v>169</v>
       </c>
       <c r="L3" s="2">
-        <v>1521</v>
+        <v>3380</v>
       </c>
       <c r="M3" s="2">
         <v>16</v>
@@ -10872,10 +10980,10 @@
         <v>169</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2">
-        <v>169</v>
+        <v>338</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -10893,7 +11001,7 @@
         <v>169</v>
       </c>
       <c r="L4" s="2">
-        <v>169</v>
+        <v>338</v>
       </c>
       <c r="M4" s="2">
         <v>16</v>
@@ -10913,10 +11021,10 @@
         <v>189</v>
       </c>
       <c r="E5" s="2">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2">
-        <v>4914</v>
+        <v>7182</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -10934,7 +11042,7 @@
         <v>189</v>
       </c>
       <c r="L5" s="2">
-        <v>4914</v>
+        <v>7182</v>
       </c>
       <c r="M5" s="2">
         <v>16</v>
@@ -10954,10 +11062,10 @@
         <v>179</v>
       </c>
       <c r="E6" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2">
-        <v>1074</v>
+        <v>2506</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -10975,7 +11083,7 @@
         <v>179</v>
       </c>
       <c r="L6" s="2">
-        <v>1074</v>
+        <v>2506</v>
       </c>
       <c r="M6" s="2">
         <v>16</v>
@@ -10995,10 +11103,10 @@
         <v>169</v>
       </c>
       <c r="E7" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F7" s="2">
-        <v>1183</v>
+        <v>1859</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -11016,7 +11124,7 @@
         <v>169</v>
       </c>
       <c r="L7" s="2">
-        <v>1183</v>
+        <v>1859</v>
       </c>
       <c r="M7" s="2">
         <v>16</v>
@@ -11077,10 +11185,10 @@
         <v>45</v>
       </c>
       <c r="E9" s="2">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F9" s="2">
-        <v>675</v>
+        <v>1665</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -11098,7 +11206,7 @@
         <v>45</v>
       </c>
       <c r="L9" s="2">
-        <v>675</v>
+        <v>1665</v>
       </c>
       <c r="M9" s="2">
         <v>16</v>
@@ -11118,10 +11226,10 @@
         <v>35</v>
       </c>
       <c r="E10" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F10" s="2">
-        <v>1645</v>
+        <v>2765</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -11139,7 +11247,7 @@
         <v>35</v>
       </c>
       <c r="L10" s="2">
-        <v>1645</v>
+        <v>2765</v>
       </c>
       <c r="M10" s="2">
         <v>16</v>
@@ -11159,10 +11267,10 @@
         <v>30</v>
       </c>
       <c r="E11" s="2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2">
-        <v>360</v>
+        <v>660</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -11180,7 +11288,7 @@
         <v>30</v>
       </c>
       <c r="L11" s="2">
-        <v>360</v>
+        <v>660</v>
       </c>
       <c r="M11" s="2">
         <v>16</v>
@@ -11200,10 +11308,10 @@
         <v>45</v>
       </c>
       <c r="E12" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2">
-        <v>720</v>
+        <v>945</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -11221,7 +11329,7 @@
         <v>45</v>
       </c>
       <c r="L12" s="2">
-        <v>720</v>
+        <v>945</v>
       </c>
       <c r="M12" s="2">
         <v>16</v>
@@ -11241,10 +11349,10 @@
         <v>45</v>
       </c>
       <c r="E13" s="2">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="F13" s="2">
-        <v>1890</v>
+        <v>3105</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -11262,7 +11370,7 @@
         <v>45</v>
       </c>
       <c r="L13" s="2">
-        <v>1890</v>
+        <v>3105</v>
       </c>
       <c r="M13" s="2">
         <v>16</v>
@@ -11282,10 +11390,10 @@
         <v>45</v>
       </c>
       <c r="E14" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2">
-        <v>630</v>
+        <v>1080</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -11303,7 +11411,7 @@
         <v>45</v>
       </c>
       <c r="L14" s="2">
-        <v>630</v>
+        <v>1080</v>
       </c>
       <c r="M14" s="2">
         <v>16</v>
@@ -11364,10 +11472,10 @@
         <v>45</v>
       </c>
       <c r="E16" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F16" s="2">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -11385,7 +11493,7 @@
         <v>45</v>
       </c>
       <c r="L16" s="2">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="M16" s="2">
         <v>16</v>
@@ -11405,10 +11513,10 @@
         <v>55</v>
       </c>
       <c r="E17" s="2">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F17" s="2">
-        <v>2475</v>
+        <v>3245</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -11426,7 +11534,7 @@
         <v>55</v>
       </c>
       <c r="L17" s="2">
-        <v>2475</v>
+        <v>3245</v>
       </c>
       <c r="M17" s="2">
         <v>16</v>
@@ -11446,10 +11554,10 @@
         <v>45</v>
       </c>
       <c r="E18" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="F18" s="2">
-        <v>1845</v>
+        <v>2925</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -11467,7 +11575,7 @@
         <v>45</v>
       </c>
       <c r="L18" s="2">
-        <v>1845</v>
+        <v>2925</v>
       </c>
       <c r="M18" s="2">
         <v>16</v>
@@ -11487,10 +11595,10 @@
         <v>45</v>
       </c>
       <c r="E19" s="2">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F19" s="2">
-        <v>945</v>
+        <v>1350</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
@@ -11508,7 +11616,7 @@
         <v>45</v>
       </c>
       <c r="L19" s="2">
-        <v>945</v>
+        <v>1350</v>
       </c>
       <c r="M19" s="2">
         <v>16</v>
@@ -11528,10 +11636,10 @@
         <v>45</v>
       </c>
       <c r="E20" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="F20" s="2">
-        <v>3375</v>
+        <v>5085</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
@@ -11549,7 +11657,7 @@
         <v>45</v>
       </c>
       <c r="L20" s="2">
-        <v>3375</v>
+        <v>5085</v>
       </c>
       <c r="M20" s="2">
         <v>16</v>
@@ -11569,10 +11677,10 @@
         <v>45</v>
       </c>
       <c r="E21" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" s="2">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
@@ -11590,7 +11698,7 @@
         <v>45</v>
       </c>
       <c r="L21" s="2">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="M21" s="2">
         <v>16</v>
@@ -11610,10 +11718,10 @@
         <v>45</v>
       </c>
       <c r="E22" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="F22" s="2">
-        <v>1800</v>
+        <v>3510</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
@@ -11631,7 +11739,7 @@
         <v>45</v>
       </c>
       <c r="L22" s="2">
-        <v>1800</v>
+        <v>3510</v>
       </c>
       <c r="M22" s="2">
         <v>16</v>
@@ -11651,10 +11759,10 @@
         <v>55</v>
       </c>
       <c r="E23" s="2">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F23" s="2">
-        <v>1870</v>
+        <v>2915</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
@@ -11672,7 +11780,7 @@
         <v>55</v>
       </c>
       <c r="L23" s="2">
-        <v>1870</v>
+        <v>2915</v>
       </c>
       <c r="M23" s="2">
         <v>16</v>
@@ -11692,10 +11800,10 @@
         <v>45</v>
       </c>
       <c r="E24" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F24" s="2">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
@@ -11713,7 +11821,7 @@
         <v>45</v>
       </c>
       <c r="L24" s="2">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="M24" s="2">
         <v>16</v>
@@ -11774,10 +11882,10 @@
         <v>45</v>
       </c>
       <c r="E26" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F26" s="2">
-        <v>405</v>
+        <v>675</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
@@ -11795,7 +11903,7 @@
         <v>45</v>
       </c>
       <c r="L26" s="2">
-        <v>405</v>
+        <v>675</v>
       </c>
       <c r="M26" s="2">
         <v>16</v>
@@ -11815,10 +11923,10 @@
         <v>55</v>
       </c>
       <c r="E27" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F27" s="2">
-        <v>495</v>
+        <v>715</v>
       </c>
       <c r="G27" s="2">
         <v>0</v>
@@ -11836,7 +11944,7 @@
         <v>55</v>
       </c>
       <c r="L27" s="2">
-        <v>495</v>
+        <v>715</v>
       </c>
       <c r="M27" s="2">
         <v>16</v>
@@ -11856,10 +11964,10 @@
         <v>140</v>
       </c>
       <c r="E28" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28" s="2">
-        <v>560</v>
+        <v>700</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
@@ -11877,7 +11985,7 @@
         <v>140</v>
       </c>
       <c r="L28" s="2">
-        <v>560</v>
+        <v>700</v>
       </c>
       <c r="M28" s="2">
         <v>16</v>
@@ -11897,10 +12005,10 @@
         <v>145</v>
       </c>
       <c r="E29" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F29" s="2">
-        <v>725</v>
+        <v>1160</v>
       </c>
       <c r="G29" s="2">
         <v>0</v>
@@ -11918,7 +12026,7 @@
         <v>145</v>
       </c>
       <c r="L29" s="2">
-        <v>725</v>
+        <v>1160</v>
       </c>
       <c r="M29" s="2">
         <v>16</v>
@@ -11979,10 +12087,10 @@
         <v>169</v>
       </c>
       <c r="E31" s="2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F31" s="2">
-        <v>1859</v>
+        <v>3549</v>
       </c>
       <c r="G31" s="2">
         <v>0</v>
@@ -12000,7 +12108,7 @@
         <v>169</v>
       </c>
       <c r="L31" s="2">
-        <v>1859</v>
+        <v>3549</v>
       </c>
       <c r="M31" s="2">
         <v>16</v>
@@ -12020,10 +12128,10 @@
         <v>159</v>
       </c>
       <c r="E32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="2">
-        <v>159</v>
+        <v>318</v>
       </c>
       <c r="G32" s="2">
         <v>0</v>
@@ -12041,7 +12149,7 @@
         <v>159</v>
       </c>
       <c r="L32" s="2">
-        <v>159</v>
+        <v>318</v>
       </c>
       <c r="M32" s="2">
         <v>16</v>
@@ -12061,10 +12169,10 @@
         <v>159</v>
       </c>
       <c r="E33" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="2">
-        <v>159</v>
+        <v>318</v>
       </c>
       <c r="G33" s="2">
         <v>0</v>
@@ -12082,7 +12190,7 @@
         <v>159</v>
       </c>
       <c r="L33" s="2">
-        <v>159</v>
+        <v>318</v>
       </c>
       <c r="M33" s="2">
         <v>16</v>
@@ -12102,10 +12210,10 @@
         <v>189</v>
       </c>
       <c r="E34" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F34" s="2">
-        <v>1134</v>
+        <v>1890</v>
       </c>
       <c r="G34" s="2">
         <v>0</v>
@@ -12123,7 +12231,7 @@
         <v>189</v>
       </c>
       <c r="L34" s="2">
-        <v>1134</v>
+        <v>1890</v>
       </c>
       <c r="M34" s="2">
         <v>16</v>
@@ -12140,13 +12248,13 @@
         <v>47</v>
       </c>
       <c r="D35" s="2">
-        <v>190.34780000000001</v>
+        <v>192.78120000000001</v>
       </c>
       <c r="E35" s="2">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F35" s="2">
-        <v>4377.9993999999997</v>
+        <v>6168.9984000000004</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
@@ -12158,13 +12266,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="2">
-        <v>190.34780000000001</v>
+        <v>192.78120000000001</v>
       </c>
       <c r="K35" s="2">
         <v>199</v>
       </c>
       <c r="L35" s="2">
-        <v>4577</v>
+        <v>6368</v>
       </c>
       <c r="M35" s="2">
         <v>16</v>
@@ -12225,10 +12333,10 @@
         <v>149</v>
       </c>
       <c r="E37" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="2">
-        <v>298</v>
+        <v>447</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
@@ -12246,7 +12354,7 @@
         <v>149</v>
       </c>
       <c r="L37" s="2">
-        <v>298</v>
+        <v>447</v>
       </c>
       <c r="M37" s="2">
         <v>16</v>
@@ -12348,10 +12456,10 @@
         <v>55</v>
       </c>
       <c r="E40" s="2">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F40" s="2">
-        <v>1210</v>
+        <v>2090</v>
       </c>
       <c r="G40" s="2">
         <v>0</v>
@@ -12369,7 +12477,7 @@
         <v>55</v>
       </c>
       <c r="L40" s="2">
-        <v>1210</v>
+        <v>2090</v>
       </c>
       <c r="M40" s="2">
         <v>16</v>
@@ -12389,10 +12497,10 @@
         <v>140</v>
       </c>
       <c r="E41" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F41" s="2">
-        <v>560</v>
+        <v>840</v>
       </c>
       <c r="G41" s="2">
         <v>0</v>
@@ -12410,7 +12518,7 @@
         <v>140</v>
       </c>
       <c r="L41" s="2">
-        <v>560</v>
+        <v>840</v>
       </c>
       <c r="M41" s="2">
         <v>16</v>
@@ -12430,10 +12538,10 @@
         <v>95</v>
       </c>
       <c r="E42" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F42" s="2">
-        <v>1140</v>
+        <v>1710</v>
       </c>
       <c r="G42" s="2">
         <v>0</v>
@@ -12451,7 +12559,7 @@
         <v>95</v>
       </c>
       <c r="L42" s="2">
-        <v>1140</v>
+        <v>1710</v>
       </c>
       <c r="M42" s="2">
         <v>16</v>
@@ -12471,10 +12579,10 @@
         <v>45</v>
       </c>
       <c r="E43" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F43" s="2">
-        <v>405</v>
+        <v>765</v>
       </c>
       <c r="G43" s="2">
         <v>0</v>
@@ -12492,7 +12600,7 @@
         <v>45</v>
       </c>
       <c r="L43" s="2">
-        <v>405</v>
+        <v>765</v>
       </c>
       <c r="M43" s="2">
         <v>16</v>
@@ -12509,13 +12617,13 @@
         <v>55</v>
       </c>
       <c r="D44" s="2">
-        <v>48.699399999999997</v>
+        <v>48.77</v>
       </c>
       <c r="E44" s="2">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="F44" s="2">
-        <v>7938.0021999999999</v>
+        <v>10388.01</v>
       </c>
       <c r="G44" s="2">
         <v>0</v>
@@ -12527,13 +12635,13 @@
         <v>0</v>
       </c>
       <c r="J44" s="2">
-        <v>48.699399999999997</v>
+        <v>48.77</v>
       </c>
       <c r="K44" s="2">
         <v>49</v>
       </c>
       <c r="L44" s="2">
-        <v>7987</v>
+        <v>10437</v>
       </c>
       <c r="M44" s="2">
         <v>16</v>
@@ -12553,10 +12661,10 @@
         <v>49</v>
       </c>
       <c r="E45" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F45" s="2">
-        <v>245</v>
+        <v>637</v>
       </c>
       <c r="G45" s="2">
         <v>0</v>
@@ -12574,7 +12682,7 @@
         <v>49</v>
       </c>
       <c r="L45" s="2">
-        <v>245</v>
+        <v>637</v>
       </c>
       <c r="M45" s="2">
         <v>16</v>
@@ -12676,10 +12784,10 @@
         <v>55</v>
       </c>
       <c r="E48" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F48" s="2">
-        <v>1265</v>
+        <v>1815</v>
       </c>
       <c r="G48" s="2">
         <v>0</v>
@@ -12697,7 +12805,7 @@
         <v>55</v>
       </c>
       <c r="L48" s="2">
-        <v>1265</v>
+        <v>1815</v>
       </c>
       <c r="M48" s="2">
         <v>16</v>
@@ -12717,10 +12825,10 @@
         <v>45</v>
       </c>
       <c r="E49" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F49" s="2">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="G49" s="2">
         <v>0</v>
@@ -12738,7 +12846,7 @@
         <v>45</v>
       </c>
       <c r="L49" s="2">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="M49" s="2">
         <v>16</v>
@@ -12758,10 +12866,10 @@
         <v>45</v>
       </c>
       <c r="E50" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F50" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G50" s="2">
         <v>0</v>
@@ -12779,7 +12887,7 @@
         <v>45</v>
       </c>
       <c r="L50" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M50" s="2">
         <v>16</v>
@@ -12799,10 +12907,10 @@
         <v>59</v>
       </c>
       <c r="E51" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F51" s="2">
-        <v>472</v>
+        <v>826</v>
       </c>
       <c r="G51" s="2">
         <v>0</v>
@@ -12820,7 +12928,7 @@
         <v>59</v>
       </c>
       <c r="L51" s="2">
-        <v>472</v>
+        <v>826</v>
       </c>
       <c r="M51" s="2">
         <v>16</v>
@@ -12840,10 +12948,10 @@
         <v>49</v>
       </c>
       <c r="E52" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F52" s="2">
-        <v>294</v>
+        <v>441</v>
       </c>
       <c r="G52" s="2">
         <v>0</v>
@@ -12861,7 +12969,7 @@
         <v>49</v>
       </c>
       <c r="L52" s="2">
-        <v>294</v>
+        <v>441</v>
       </c>
       <c r="M52" s="2">
         <v>16</v>
@@ -12881,10 +12989,10 @@
         <v>40</v>
       </c>
       <c r="E53" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G53" s="2">
         <v>0</v>
@@ -12902,7 +13010,7 @@
         <v>40</v>
       </c>
       <c r="L53" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="M53" s="2">
         <v>16</v>
@@ -12922,10 +13030,10 @@
         <v>115</v>
       </c>
       <c r="E54" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F54" s="2">
-        <v>345</v>
+        <v>460</v>
       </c>
       <c r="G54" s="2">
         <v>0</v>
@@ -12943,7 +13051,7 @@
         <v>115</v>
       </c>
       <c r="L54" s="2">
-        <v>345</v>
+        <v>460</v>
       </c>
       <c r="M54" s="2">
         <v>16</v>
@@ -13074,22 +13182,22 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
-        <v>42048</v>
+        <v>42053</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D58" s="2">
-        <v>299</v>
+        <v>656</v>
       </c>
       <c r="E58" s="2">
         <v>1</v>
       </c>
       <c r="F58" s="2">
-        <v>299</v>
+        <v>656</v>
       </c>
       <c r="G58" s="2">
         <v>0</v>
@@ -13101,13 +13209,13 @@
         <v>0</v>
       </c>
       <c r="J58" s="2">
-        <v>299</v>
+        <v>656</v>
       </c>
       <c r="K58" s="2">
-        <v>299</v>
+        <v>656</v>
       </c>
       <c r="L58" s="2">
-        <v>299</v>
+        <v>656</v>
       </c>
       <c r="M58" s="2">
         <v>16</v>
@@ -13115,22 +13223,22 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
-        <v>42021</v>
+        <v>42048</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D59" s="2">
-        <v>203</v>
+        <v>299</v>
       </c>
       <c r="E59" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="2">
-        <v>203</v>
+        <v>598</v>
       </c>
       <c r="G59" s="2">
         <v>0</v>
@@ -13142,13 +13250,13 @@
         <v>0</v>
       </c>
       <c r="J59" s="2">
-        <v>203</v>
+        <v>299</v>
       </c>
       <c r="K59" s="2">
-        <v>203</v>
+        <v>299</v>
       </c>
       <c r="L59" s="2">
-        <v>203</v>
+        <v>598</v>
       </c>
       <c r="M59" s="2">
         <v>16</v>
@@ -13156,22 +13264,22 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
-        <v>42059</v>
+        <v>42021</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D60" s="2">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="E60" s="2">
         <v>1</v>
       </c>
       <c r="F60" s="2">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="G60" s="2">
         <v>0</v>
@@ -13183,13 +13291,13 @@
         <v>0</v>
       </c>
       <c r="J60" s="2">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="K60" s="2">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="L60" s="2">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="M60" s="2">
         <v>16</v>
@@ -13197,22 +13305,22 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A61" s="2">
-        <v>42061</v>
+        <v>42059</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D61" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E61" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="G61" s="2">
         <v>0</v>
@@ -13224,13 +13332,13 @@
         <v>0</v>
       </c>
       <c r="J61" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K61" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L61" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="M61" s="2">
         <v>16</v>
@@ -13238,22 +13346,22 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A62" s="2">
-        <v>42004</v>
+        <v>42061</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D62" s="2">
-        <v>235</v>
+        <v>48</v>
       </c>
       <c r="E62" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" s="2">
-        <v>235</v>
+        <v>96</v>
       </c>
       <c r="G62" s="2">
         <v>0</v>
@@ -13265,13 +13373,13 @@
         <v>0</v>
       </c>
       <c r="J62" s="2">
-        <v>235</v>
+        <v>48</v>
       </c>
       <c r="K62" s="2">
-        <v>235</v>
+        <v>48</v>
       </c>
       <c r="L62" s="2">
-        <v>235</v>
+        <v>96</v>
       </c>
       <c r="M62" s="2">
         <v>16</v>
@@ -13279,22 +13387,22 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A63" s="2">
-        <v>42003</v>
+        <v>42063</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D63" s="2">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="E63" s="2">
         <v>2</v>
       </c>
       <c r="F63" s="2">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="G63" s="2">
         <v>0</v>
@@ -13306,13 +13414,13 @@
         <v>0</v>
       </c>
       <c r="J63" s="2">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="K63" s="2">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="L63" s="2">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="M63" s="2">
         <v>16</v>
@@ -13320,22 +13428,22 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A64" s="2">
-        <v>42006</v>
+        <v>42011</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D64" s="2">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E64" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F64" s="2">
-        <v>625</v>
+        <v>109</v>
       </c>
       <c r="G64" s="2">
         <v>0</v>
@@ -13347,13 +13455,13 @@
         <v>0</v>
       </c>
       <c r="J64" s="2">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="K64" s="2">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="L64" s="2">
-        <v>625</v>
+        <v>109</v>
       </c>
       <c r="M64" s="2">
         <v>16</v>
@@ -13361,22 +13469,22 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" s="2">
-        <v>42069</v>
+        <v>42004</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D65" s="2">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="E65" s="2">
         <v>1</v>
       </c>
       <c r="F65" s="2">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="G65" s="2">
         <v>0</v>
@@ -13388,13 +13496,13 @@
         <v>0</v>
       </c>
       <c r="J65" s="2">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="K65" s="2">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="L65" s="2">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="M65" s="2">
         <v>16</v>
@@ -13402,22 +13510,22 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
-        <v>42007</v>
+        <v>42003</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D66" s="2">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E66" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F66" s="2">
-        <v>99</v>
+        <v>436</v>
       </c>
       <c r="G66" s="2">
         <v>0</v>
@@ -13429,13 +13537,13 @@
         <v>0</v>
       </c>
       <c r="J66" s="2">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="K66" s="2">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="L66" s="2">
-        <v>99</v>
+        <v>436</v>
       </c>
       <c r="M66" s="2">
         <v>16</v>
@@ -13443,22 +13551,22 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
-        <v>42009</v>
+        <v>42006</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D67" s="2">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="E67" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F67" s="2">
-        <v>105</v>
+        <v>750</v>
       </c>
       <c r="G67" s="2">
         <v>0</v>
@@ -13470,13 +13578,13 @@
         <v>0</v>
       </c>
       <c r="J67" s="2">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K67" s="2">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="L67" s="2">
-        <v>105</v>
+        <v>750</v>
       </c>
       <c r="M67" s="2">
         <v>16</v>
@@ -13484,22 +13592,22 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
-        <v>42034</v>
+        <v>42069</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D68" s="2">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E68" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F68" s="2">
-        <v>925</v>
+        <v>169</v>
       </c>
       <c r="G68" s="2">
         <v>0</v>
@@ -13511,13 +13619,13 @@
         <v>0</v>
       </c>
       <c r="J68" s="2">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="K68" s="2">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="L68" s="2">
-        <v>925</v>
+        <v>169</v>
       </c>
       <c r="M68" s="2">
         <v>16</v>
@@ -13525,22 +13633,22 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A69" s="2">
-        <v>42037</v>
+        <v>42007</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D69" s="2">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" s="2">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="G69" s="2">
         <v>0</v>
@@ -13552,13 +13660,13 @@
         <v>0</v>
       </c>
       <c r="J69" s="2">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="K69" s="2">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="L69" s="2">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="M69" s="2">
         <v>16</v>
@@ -13566,22 +13674,22 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70" s="2">
-        <v>42033</v>
+        <v>42009</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D70" s="2">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70" s="2">
-        <v>418</v>
+        <v>315</v>
       </c>
       <c r="G70" s="2">
         <v>0</v>
@@ -13593,13 +13701,13 @@
         <v>0</v>
       </c>
       <c r="J70" s="2">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="K70" s="2">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="L70" s="2">
-        <v>418</v>
+        <v>315</v>
       </c>
       <c r="M70" s="2">
         <v>16</v>
@@ -13607,22 +13715,22 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A71" s="2">
-        <v>42050</v>
+        <v>42034</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D71" s="2">
-        <v>480</v>
+        <v>185</v>
       </c>
       <c r="E71" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F71" s="2">
-        <v>960</v>
+        <v>1110</v>
       </c>
       <c r="G71" s="2">
         <v>0</v>
@@ -13634,13 +13742,13 @@
         <v>0</v>
       </c>
       <c r="J71" s="2">
-        <v>480</v>
+        <v>185</v>
       </c>
       <c r="K71" s="2">
-        <v>480</v>
+        <v>185</v>
       </c>
       <c r="L71" s="2">
-        <v>960</v>
+        <v>1110</v>
       </c>
       <c r="M71" s="2">
         <v>16</v>
@@ -13648,22 +13756,22 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
-        <v>42017</v>
+        <v>42036</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>217</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D72" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E72" s="2">
         <v>1</v>
       </c>
       <c r="F72" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G72" s="2">
         <v>0</v>
@@ -13675,13 +13783,13 @@
         <v>0</v>
       </c>
       <c r="J72" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K72" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="L72" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="M72" s="2">
         <v>16</v>
@@ -13689,22 +13797,22 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
-        <v>42039</v>
+        <v>42037</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D73" s="2">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="E73" s="2">
         <v>1</v>
       </c>
       <c r="F73" s="2">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="G73" s="2">
         <v>0</v>
@@ -13716,13 +13824,13 @@
         <v>0</v>
       </c>
       <c r="J73" s="2">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="K73" s="2">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="L73" s="2">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="M73" s="2">
         <v>16</v>
@@ -13730,22 +13838,22 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A74" s="2">
-        <v>42040</v>
+        <v>42033</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D74" s="2">
-        <v>47</v>
+        <v>209</v>
       </c>
       <c r="E74" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" s="2">
-        <v>141</v>
+        <v>418</v>
       </c>
       <c r="G74" s="2">
         <v>0</v>
@@ -13757,13 +13865,13 @@
         <v>0</v>
       </c>
       <c r="J74" s="2">
-        <v>47</v>
+        <v>209</v>
       </c>
       <c r="K74" s="2">
-        <v>47</v>
+        <v>209</v>
       </c>
       <c r="L74" s="2">
-        <v>141</v>
+        <v>418</v>
       </c>
       <c r="M74" s="2">
         <v>16</v>
@@ -13771,22 +13879,22 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A75" s="2">
-        <v>42043</v>
+        <v>42050</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D75" s="2">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="E75" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" s="2">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="G75" s="2">
         <v>0</v>
@@ -13798,13 +13906,13 @@
         <v>0</v>
       </c>
       <c r="J75" s="2">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="K75" s="2">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="L75" s="2">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="M75" s="2">
         <v>16</v>
@@ -13812,10 +13920,10 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76" s="2">
-        <v>42044</v>
+        <v>42017</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>76</v>
@@ -13824,7 +13932,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" s="2">
         <v>0</v>
@@ -13853,22 +13961,22 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A77" s="2">
-        <v>22001</v>
+        <v>42039</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D77" s="2">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="E77" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" s="2">
-        <v>270</v>
+        <v>49</v>
       </c>
       <c r="G77" s="2">
         <v>0</v>
@@ -13880,13 +13988,13 @@
         <v>0</v>
       </c>
       <c r="J77" s="2">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="K77" s="2">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="L77" s="2">
-        <v>270</v>
+        <v>49</v>
       </c>
       <c r="M77" s="2">
         <v>16</v>
@@ -13894,22 +14002,22 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A78" s="2">
-        <v>22002</v>
+        <v>42040</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D78" s="2">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="E78" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78" s="2">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="G78" s="2">
         <v>0</v>
@@ -13921,13 +14029,13 @@
         <v>0</v>
       </c>
       <c r="J78" s="2">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="K78" s="2">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="L78" s="2">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="M78" s="2">
         <v>16</v>
@@ -13935,22 +14043,22 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79" s="2">
-        <v>22007</v>
+        <v>42042</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>97</v>
+        <v>272</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D79" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="E79" s="2">
         <v>1</v>
       </c>
       <c r="F79" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="G79" s="2">
         <v>0</v>
@@ -13962,13 +14070,13 @@
         <v>0</v>
       </c>
       <c r="J79" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="K79" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="L79" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="M79" s="2">
         <v>16</v>
@@ -13976,22 +14084,22 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80" s="2">
-        <v>22006</v>
+        <v>42043</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D80" s="2">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="E80" s="2">
         <v>1</v>
       </c>
       <c r="F80" s="2">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="G80" s="2">
         <v>0</v>
@@ -14003,13 +14111,13 @@
         <v>0</v>
       </c>
       <c r="J80" s="2">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="K80" s="2">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="L80" s="2">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="M80" s="2">
         <v>16</v>
@@ -14017,22 +14125,22 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A81" s="2">
-        <v>22003</v>
+        <v>42044</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D81" s="2">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="E81" s="2">
         <v>1</v>
       </c>
       <c r="F81" s="2">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="G81" s="2">
         <v>0</v>
@@ -14044,13 +14152,13 @@
         <v>0</v>
       </c>
       <c r="J81" s="2">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="K81" s="2">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="L81" s="2">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="M81" s="2">
         <v>16</v>
@@ -14058,22 +14166,22 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A82" s="2">
-        <v>2001</v>
+        <v>22001</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D82" s="2">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E82" s="2">
         <v>4</v>
       </c>
       <c r="F82" s="2">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="G82" s="2">
         <v>0</v>
@@ -14085,13 +14193,13 @@
         <v>0</v>
       </c>
       <c r="J82" s="2">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="K82" s="2">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L82" s="2">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="M82" s="2">
         <v>16</v>
@@ -14099,22 +14207,22 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A83" s="2">
-        <v>2002</v>
+        <v>22002</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D83" s="2">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="E83" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F83" s="2">
-        <v>1980</v>
+        <v>90</v>
       </c>
       <c r="G83" s="2">
         <v>0</v>
@@ -14126,13 +14234,13 @@
         <v>0</v>
       </c>
       <c r="J83" s="2">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="K83" s="2">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="L83" s="2">
-        <v>1980</v>
+        <v>90</v>
       </c>
       <c r="M83" s="2">
         <v>16</v>
@@ -14140,22 +14248,22 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A84" s="2">
-        <v>1009</v>
+        <v>22007</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D84" s="2">
-        <v>83.125</v>
+        <v>95</v>
       </c>
       <c r="E84" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F84" s="2">
-        <v>665</v>
+        <v>95</v>
       </c>
       <c r="G84" s="2">
         <v>0</v>
@@ -14167,13 +14275,13 @@
         <v>0</v>
       </c>
       <c r="J84" s="2">
-        <v>83.125</v>
+        <v>95</v>
       </c>
       <c r="K84" s="2">
         <v>95</v>
       </c>
       <c r="L84" s="2">
-        <v>760</v>
+        <v>95</v>
       </c>
       <c r="M84" s="2">
         <v>16</v>
@@ -14181,22 +14289,22 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A85" s="2">
-        <v>1002</v>
+        <v>22006</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D85" s="2">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="E85" s="2">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F85" s="2">
-        <v>7960</v>
+        <v>95</v>
       </c>
       <c r="G85" s="2">
         <v>0</v>
@@ -14208,13 +14316,13 @@
         <v>0</v>
       </c>
       <c r="J85" s="2">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="K85" s="2">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="L85" s="2">
-        <v>7960</v>
+        <v>95</v>
       </c>
       <c r="M85" s="2">
         <v>16</v>
@@ -14222,22 +14330,22 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A86" s="2">
-        <v>1001</v>
+        <v>22003</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D86" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E86" s="2">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F86" s="2">
-        <v>2871</v>
+        <v>95</v>
       </c>
       <c r="G86" s="2">
         <v>0</v>
@@ -14249,13 +14357,13 @@
         <v>0</v>
       </c>
       <c r="J86" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K86" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L86" s="2">
-        <v>2871</v>
+        <v>95</v>
       </c>
       <c r="M86" s="2">
         <v>16</v>
@@ -14263,22 +14371,22 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A87" s="2">
-        <v>1004</v>
+        <v>2001</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D87" s="2">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="E87" s="2">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F87" s="2">
-        <v>3213</v>
+        <v>1015</v>
       </c>
       <c r="G87" s="2">
         <v>0</v>
@@ -14290,13 +14398,13 @@
         <v>0</v>
       </c>
       <c r="J87" s="2">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="K87" s="2">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="L87" s="2">
-        <v>3213</v>
+        <v>1015</v>
       </c>
       <c r="M87" s="2">
         <v>16</v>
@@ -14304,22 +14412,22 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A88" s="2">
-        <v>1010</v>
+        <v>2002</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D88" s="2">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="E88" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F88" s="2">
-        <v>1520</v>
+        <v>2475</v>
       </c>
       <c r="G88" s="2">
         <v>0</v>
@@ -14331,13 +14439,13 @@
         <v>0</v>
       </c>
       <c r="J88" s="2">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="K88" s="2">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="L88" s="2">
-        <v>1520</v>
+        <v>2475</v>
       </c>
       <c r="M88" s="2">
         <v>16</v>
@@ -14345,22 +14453,22 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A89" s="2">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D89" s="2">
-        <v>90</v>
+        <v>88.666700000000006</v>
       </c>
       <c r="E89" s="2">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F89" s="2">
-        <v>2070</v>
+        <v>1330.0005000000001</v>
       </c>
       <c r="G89" s="2">
         <v>0</v>
@@ -14372,13 +14480,13 @@
         <v>0</v>
       </c>
       <c r="J89" s="2">
-        <v>90</v>
+        <v>88.666700000000006</v>
       </c>
       <c r="K89" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L89" s="2">
-        <v>2070</v>
+        <v>1425</v>
       </c>
       <c r="M89" s="2">
         <v>16</v>
@@ -14386,22 +14494,22 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A90" s="2">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D90" s="2">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="E90" s="2">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="F90" s="2">
-        <v>2064</v>
+        <v>12338</v>
       </c>
       <c r="G90" s="2">
         <v>0</v>
@@ -14413,13 +14521,13 @@
         <v>0</v>
       </c>
       <c r="J90" s="2">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="K90" s="2">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="L90" s="2">
-        <v>2064</v>
+        <v>12338</v>
       </c>
       <c r="M90" s="2">
         <v>16</v>
@@ -14427,22 +14535,22 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A91" s="2">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D91" s="2">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="E91" s="2">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="F91" s="2">
-        <v>258</v>
+        <v>3663</v>
       </c>
       <c r="G91" s="2">
         <v>0</v>
@@ -14454,13 +14562,13 @@
         <v>0</v>
       </c>
       <c r="J91" s="2">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="K91" s="2">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="L91" s="2">
-        <v>258</v>
+        <v>3663</v>
       </c>
       <c r="M91" s="2">
         <v>16</v>
@@ -14468,22 +14576,22 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A92" s="2">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D92" s="2">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E92" s="2">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F92" s="2">
-        <v>4257</v>
+        <v>5236</v>
       </c>
       <c r="G92" s="2">
         <v>0</v>
@@ -14495,13 +14603,13 @@
         <v>0</v>
       </c>
       <c r="J92" s="2">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="K92" s="2">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="L92" s="2">
-        <v>4257</v>
+        <v>5236</v>
       </c>
       <c r="M92" s="2">
         <v>16</v>
@@ -14509,22 +14617,22 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A93" s="2">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D93" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E93" s="2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F93" s="2">
-        <v>1188</v>
+        <v>2280</v>
       </c>
       <c r="G93" s="2">
         <v>0</v>
@@ -14536,13 +14644,13 @@
         <v>0</v>
       </c>
       <c r="J93" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K93" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L93" s="2">
-        <v>1188</v>
+        <v>2280</v>
       </c>
       <c r="M93" s="2">
         <v>16</v>
@@ -14550,22 +14658,22 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A94" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D94" s="2">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E94" s="2">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F94" s="2">
-        <v>693</v>
+        <v>2610</v>
       </c>
       <c r="G94" s="2">
         <v>0</v>
@@ -14577,13 +14685,13 @@
         <v>0</v>
       </c>
       <c r="J94" s="2">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="K94" s="2">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="L94" s="2">
-        <v>693</v>
+        <v>2610</v>
       </c>
       <c r="M94" s="2">
         <v>16</v>
@@ -14591,22 +14699,22 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A95" s="2">
-        <v>36002</v>
+        <v>1011</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D95" s="2">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="E95" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F95" s="2">
-        <v>165</v>
+        <v>2838</v>
       </c>
       <c r="G95" s="2">
         <v>0</v>
@@ -14618,13 +14726,13 @@
         <v>0</v>
       </c>
       <c r="J95" s="2">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="K95" s="2">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="L95" s="2">
-        <v>165</v>
+        <v>2838</v>
       </c>
       <c r="M95" s="2">
         <v>16</v>
@@ -14632,22 +14740,22 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A96" s="2">
-        <v>36001</v>
+        <v>1003</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D96" s="2">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E96" s="2">
         <v>3</v>
       </c>
       <c r="F96" s="2">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="G96" s="2">
         <v>0</v>
@@ -14659,13 +14767,13 @@
         <v>0</v>
       </c>
       <c r="J96" s="2">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="K96" s="2">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="L96" s="2">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="M96" s="2">
         <v>16</v>
@@ -14673,22 +14781,22 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A97" s="2">
-        <v>15007</v>
+        <v>1008</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D97" s="2">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E97" s="2">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="F97" s="2">
-        <v>45</v>
+        <v>6192</v>
       </c>
       <c r="G97" s="2">
         <v>0</v>
@@ -14700,13 +14808,13 @@
         <v>0</v>
       </c>
       <c r="J97" s="2">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="K97" s="2">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="L97" s="2">
-        <v>45</v>
+        <v>6192</v>
       </c>
       <c r="M97" s="2">
         <v>16</v>
@@ -14714,22 +14822,22 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A98" s="2">
-        <v>15005</v>
+        <v>1007</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D98" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="E98" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F98" s="2">
-        <v>59</v>
+        <v>1386</v>
       </c>
       <c r="G98" s="2">
         <v>0</v>
@@ -14741,13 +14849,13 @@
         <v>0</v>
       </c>
       <c r="J98" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="K98" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="L98" s="2">
-        <v>59</v>
+        <v>1386</v>
       </c>
       <c r="M98" s="2">
         <v>16</v>
@@ -14755,22 +14863,22 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A99" s="2">
-        <v>15003</v>
+        <v>1006</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D99" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="E99" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F99" s="2">
-        <v>59</v>
+        <v>1089</v>
       </c>
       <c r="G99" s="2">
         <v>0</v>
@@ -14782,13 +14890,13 @@
         <v>0</v>
       </c>
       <c r="J99" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="K99" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="L99" s="2">
-        <v>59</v>
+        <v>1089</v>
       </c>
       <c r="M99" s="2">
         <v>16</v>
@@ -14796,22 +14904,22 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A100" s="2">
-        <v>15006</v>
+        <v>36002</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D100" s="2">
+        <v>165</v>
+      </c>
+      <c r="E100" s="2">
         <v>1</v>
       </c>
-      <c r="E100" s="2">
-        <v>3</v>
-      </c>
       <c r="F100" s="2">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="G100" s="2">
         <v>0</v>
@@ -14823,13 +14931,13 @@
         <v>0</v>
       </c>
       <c r="J100" s="2">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="K100" s="2">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="L100" s="2">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="M100" s="2">
         <v>16</v>
@@ -14837,22 +14945,22 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A101" s="2">
-        <v>10003</v>
+        <v>36001</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D101" s="2">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="E101" s="2">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F101" s="2">
-        <v>3700</v>
+        <v>870</v>
       </c>
       <c r="G101" s="2">
         <v>0</v>
@@ -14864,13 +14972,13 @@
         <v>0</v>
       </c>
       <c r="J101" s="2">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="K101" s="2">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="L101" s="2">
-        <v>3700</v>
+        <v>870</v>
       </c>
       <c r="M101" s="2">
         <v>16</v>
@@ -14878,22 +14986,22 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A102" s="2">
-        <v>10002</v>
+        <v>15007</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D102" s="2">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="E102" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F102" s="2">
-        <v>1705</v>
+        <v>45</v>
       </c>
       <c r="G102" s="2">
         <v>0</v>
@@ -14905,13 +15013,13 @@
         <v>0</v>
       </c>
       <c r="J102" s="2">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="K102" s="2">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="L102" s="2">
-        <v>1705</v>
+        <v>45</v>
       </c>
       <c r="M102" s="2">
         <v>16</v>
@@ -14919,22 +15027,22 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A103" s="2">
-        <v>10001</v>
+        <v>15005</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D103" s="2">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="E103" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F103" s="2">
-        <v>2366</v>
+        <v>59</v>
       </c>
       <c r="G103" s="2">
         <v>0</v>
@@ -14946,13 +15054,13 @@
         <v>0</v>
       </c>
       <c r="J103" s="2">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="K103" s="2">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="L103" s="2">
-        <v>2366</v>
+        <v>59</v>
       </c>
       <c r="M103" s="2">
         <v>16</v>
@@ -14960,22 +15068,22 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A104" s="2">
-        <v>19001</v>
+        <v>15003</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D104" s="2">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="E104" s="2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F104" s="2">
-        <v>2280</v>
+        <v>59</v>
       </c>
       <c r="G104" s="2">
         <v>0</v>
@@ -14987,13 +15095,13 @@
         <v>0</v>
       </c>
       <c r="J104" s="2">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="K104" s="2">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="L104" s="2">
-        <v>2280</v>
+        <v>59</v>
       </c>
       <c r="M104" s="2">
         <v>16</v>
@@ -15001,22 +15109,22 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A105" s="2">
-        <v>19002</v>
+        <v>15006</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D105" s="2">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="E105" s="2">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F105" s="2">
-        <v>1710</v>
+        <v>3</v>
       </c>
       <c r="G105" s="2">
         <v>0</v>
@@ -15028,13 +15136,13 @@
         <v>0</v>
       </c>
       <c r="J105" s="2">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="K105" s="2">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="L105" s="2">
-        <v>1710</v>
+        <v>3</v>
       </c>
       <c r="M105" s="2">
         <v>16</v>
@@ -15042,22 +15150,22 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A106" s="2">
-        <v>19003</v>
+        <v>10003</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D106" s="2">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="E106" s="2">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F106" s="2">
-        <v>1140</v>
+        <v>5735</v>
       </c>
       <c r="G106" s="2">
         <v>0</v>
@@ -15069,13 +15177,13 @@
         <v>0</v>
       </c>
       <c r="J106" s="2">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="K106" s="2">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="L106" s="2">
-        <v>1140</v>
+        <v>5735</v>
       </c>
       <c r="M106" s="2">
         <v>16</v>
@@ -15083,22 +15191,22 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A107" s="2">
-        <v>5001</v>
+        <v>10002</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D107" s="2">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="E107" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F107" s="2">
-        <v>5670</v>
+        <v>2635</v>
       </c>
       <c r="G107" s="2">
         <v>0</v>
@@ -15110,13 +15218,13 @@
         <v>0</v>
       </c>
       <c r="J107" s="2">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="K107" s="2">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="L107" s="2">
-        <v>5670</v>
+        <v>2635</v>
       </c>
       <c r="M107" s="2">
         <v>16</v>
@@ -15124,22 +15232,22 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A108" s="2">
-        <v>5003</v>
+        <v>10001</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D108" s="2">
         <v>169</v>
       </c>
       <c r="E108" s="2">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F108" s="2">
-        <v>845</v>
+        <v>3549</v>
       </c>
       <c r="G108" s="2">
         <v>0</v>
@@ -15157,7 +15265,7 @@
         <v>169</v>
       </c>
       <c r="L108" s="2">
-        <v>845</v>
+        <v>3549</v>
       </c>
       <c r="M108" s="2">
         <v>16</v>
@@ -15165,22 +15273,22 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A109" s="2">
-        <v>5002</v>
+        <v>19001</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D109" s="2">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="E109" s="2">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F109" s="2">
-        <v>1890</v>
+        <v>3515</v>
       </c>
       <c r="G109" s="2">
         <v>0</v>
@@ -15192,13 +15300,13 @@
         <v>0</v>
       </c>
       <c r="J109" s="2">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="K109" s="2">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="L109" s="2">
-        <v>1890</v>
+        <v>3515</v>
       </c>
       <c r="M109" s="2">
         <v>16</v>
@@ -15206,22 +15314,22 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A110" s="2">
-        <v>5005</v>
+        <v>19002</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D110" s="2">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="E110" s="2">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="F110" s="2">
-        <v>845</v>
+        <v>2565</v>
       </c>
       <c r="G110" s="2">
         <v>0</v>
@@ -15233,13 +15341,13 @@
         <v>0</v>
       </c>
       <c r="J110" s="2">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="K110" s="2">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="L110" s="2">
-        <v>845</v>
+        <v>2565</v>
       </c>
       <c r="M110" s="2">
         <v>16</v>
@@ -15247,22 +15355,22 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A111" s="2">
-        <v>5006</v>
+        <v>19003</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D111" s="2">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="E111" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F111" s="2">
-        <v>310</v>
+        <v>2280</v>
       </c>
       <c r="G111" s="2">
         <v>0</v>
@@ -15274,13 +15382,13 @@
         <v>0</v>
       </c>
       <c r="J111" s="2">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="K111" s="2">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="L111" s="2">
-        <v>310</v>
+        <v>2280</v>
       </c>
       <c r="M111" s="2">
         <v>16</v>
@@ -15288,22 +15396,22 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A112" s="2">
-        <v>24004</v>
+        <v>5001</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D112" s="2">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="E112" s="2">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F112" s="2">
-        <v>436</v>
+        <v>7371</v>
       </c>
       <c r="G112" s="2">
         <v>0</v>
@@ -15315,13 +15423,13 @@
         <v>0</v>
       </c>
       <c r="J112" s="2">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="K112" s="2">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="L112" s="2">
-        <v>436</v>
+        <v>7371</v>
       </c>
       <c r="M112" s="2">
         <v>16</v>
@@ -15329,22 +15437,22 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A113" s="2">
-        <v>24005</v>
+        <v>5003</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D113" s="2">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="E113" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F113" s="2">
-        <v>545</v>
+        <v>1352</v>
       </c>
       <c r="G113" s="2">
         <v>0</v>
@@ -15356,13 +15464,13 @@
         <v>0</v>
       </c>
       <c r="J113" s="2">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="K113" s="2">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="L113" s="2">
-        <v>545</v>
+        <v>1352</v>
       </c>
       <c r="M113" s="2">
         <v>16</v>
@@ -15370,22 +15478,22 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A114" s="2">
-        <v>24001</v>
+        <v>5002</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D114" s="2">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="E114" s="2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F114" s="2">
-        <v>297</v>
+        <v>3591</v>
       </c>
       <c r="G114" s="2">
         <v>0</v>
@@ -15397,13 +15505,13 @@
         <v>0</v>
       </c>
       <c r="J114" s="2">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="K114" s="2">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="L114" s="2">
-        <v>297</v>
+        <v>3591</v>
       </c>
       <c r="M114" s="2">
         <v>16</v>
@@ -15411,22 +15519,22 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A115" s="2">
-        <v>45001</v>
+        <v>5005</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D115" s="2">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="E115" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F115" s="2">
-        <v>597</v>
+        <v>1183</v>
       </c>
       <c r="G115" s="2">
         <v>0</v>
@@ -15438,13 +15546,13 @@
         <v>0</v>
       </c>
       <c r="J115" s="2">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="K115" s="2">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="L115" s="2">
-        <v>597</v>
+        <v>1183</v>
       </c>
       <c r="M115" s="2">
         <v>16</v>
@@ -15452,22 +15560,22 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A116" s="2">
-        <v>45002</v>
+        <v>5006</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D116" s="2">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="E116" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F116" s="2">
-        <v>239</v>
+        <v>620</v>
       </c>
       <c r="G116" s="2">
         <v>0</v>
@@ -15479,13 +15587,13 @@
         <v>0</v>
       </c>
       <c r="J116" s="2">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="K116" s="2">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="L116" s="2">
-        <v>239</v>
+        <v>620</v>
       </c>
       <c r="M116" s="2">
         <v>16</v>
@@ -15493,22 +15601,22 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A117" s="2">
-        <v>31001</v>
+        <v>24006</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>139</v>
+        <v>273</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D117" s="2">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E117" s="2">
         <v>1</v>
       </c>
       <c r="F117" s="2">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G117" s="2">
         <v>0</v>
@@ -15520,13 +15628,13 @@
         <v>0</v>
       </c>
       <c r="J117" s="2">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="K117" s="2">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L117" s="2">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M117" s="2">
         <v>16</v>
@@ -15534,22 +15642,22 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A118" s="2">
-        <v>23001</v>
+        <v>24007</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>141</v>
+        <v>274</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D118" s="2">
         <v>109</v>
       </c>
       <c r="E118" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F118" s="2">
-        <v>1635</v>
+        <v>109</v>
       </c>
       <c r="G118" s="2">
         <v>0</v>
@@ -15567,7 +15675,7 @@
         <v>109</v>
       </c>
       <c r="L118" s="2">
-        <v>1635</v>
+        <v>109</v>
       </c>
       <c r="M118" s="2">
         <v>16</v>
@@ -15575,22 +15683,22 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A119" s="2">
-        <v>23005</v>
+        <v>24004</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D119" s="2">
         <v>109</v>
       </c>
       <c r="E119" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F119" s="2">
-        <v>218</v>
+        <v>763</v>
       </c>
       <c r="G119" s="2">
         <v>0</v>
@@ -15608,7 +15716,7 @@
         <v>109</v>
       </c>
       <c r="L119" s="2">
-        <v>218</v>
+        <v>763</v>
       </c>
       <c r="M119" s="2">
         <v>16</v>
@@ -15616,22 +15724,22 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A120" s="2">
-        <v>23003</v>
+        <v>24005</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D120" s="2">
         <v>109</v>
       </c>
       <c r="E120" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F120" s="2">
-        <v>327</v>
+        <v>545</v>
       </c>
       <c r="G120" s="2">
         <v>0</v>
@@ -15649,7 +15757,7 @@
         <v>109</v>
       </c>
       <c r="L120" s="2">
-        <v>327</v>
+        <v>545</v>
       </c>
       <c r="M120" s="2">
         <v>16</v>
@@ -15657,22 +15765,22 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A121" s="2">
-        <v>23004</v>
+        <v>24003</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>145</v>
+        <v>275</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D121" s="2">
         <v>109</v>
       </c>
       <c r="E121" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F121" s="2">
-        <v>872</v>
+        <v>109</v>
       </c>
       <c r="G121" s="2">
         <v>0</v>
@@ -15690,7 +15798,7 @@
         <v>109</v>
       </c>
       <c r="L121" s="2">
-        <v>872</v>
+        <v>109</v>
       </c>
       <c r="M121" s="2">
         <v>16</v>
@@ -15698,22 +15806,22 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A122" s="2">
-        <v>23002</v>
+        <v>24001</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D122" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E122" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F122" s="2">
-        <v>1090</v>
+        <v>495</v>
       </c>
       <c r="G122" s="2">
         <v>0</v>
@@ -15725,13 +15833,13 @@
         <v>0</v>
       </c>
       <c r="J122" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="K122" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="L122" s="2">
-        <v>1090</v>
+        <v>495</v>
       </c>
       <c r="M122" s="2">
         <v>16</v>
@@ -15739,22 +15847,22 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A123" s="2">
-        <v>40002</v>
+        <v>45001</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D123" s="2">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="E123" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F123" s="2">
-        <v>0</v>
+        <v>796</v>
       </c>
       <c r="G123" s="2">
         <v>0</v>
@@ -15766,13 +15874,13 @@
         <v>0</v>
       </c>
       <c r="J123" s="2">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="K123" s="2">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="L123" s="2">
-        <v>0</v>
+        <v>796</v>
       </c>
       <c r="M123" s="2">
         <v>16</v>
@@ -15780,22 +15888,22 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A124" s="2">
-        <v>40001</v>
+        <v>45002</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D124" s="2">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="E124" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F124" s="2">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="G124" s="2">
         <v>0</v>
@@ -15807,13 +15915,13 @@
         <v>0</v>
       </c>
       <c r="J124" s="2">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="K124" s="2">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="L124" s="2">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="M124" s="2">
         <v>16</v>
@@ -15821,22 +15929,22 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A125" s="2">
-        <v>40003</v>
+        <v>31001</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D125" s="2">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="E125" s="2">
         <v>1</v>
       </c>
       <c r="F125" s="2">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="G125" s="2">
         <v>0</v>
@@ -15848,13 +15956,13 @@
         <v>0</v>
       </c>
       <c r="J125" s="2">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="K125" s="2">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="L125" s="2">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="M125" s="2">
         <v>16</v>
@@ -15862,22 +15970,22 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A126" s="2">
-        <v>41002</v>
+        <v>23001</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D126" s="2">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="E126" s="2">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F126" s="2">
-        <v>0</v>
+        <v>2180</v>
       </c>
       <c r="G126" s="2">
         <v>0</v>
@@ -15889,13 +15997,13 @@
         <v>0</v>
       </c>
       <c r="J126" s="2">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="K126" s="2">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="L126" s="2">
-        <v>0</v>
+        <v>2180</v>
       </c>
       <c r="M126" s="2">
         <v>16</v>
@@ -15903,22 +16011,22 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A127" s="2">
-        <v>41001</v>
+        <v>23005</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D127" s="2">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="E127" s="2">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F127" s="2">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="G127" s="2">
         <v>0</v>
@@ -15930,13 +16038,13 @@
         <v>0</v>
       </c>
       <c r="J127" s="2">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="K127" s="2">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="L127" s="2">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="M127" s="2">
         <v>16</v>
@@ -15944,22 +16052,22 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A128" s="2">
-        <v>41004</v>
+        <v>23003</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D128" s="2">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="E128" s="2">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F128" s="2">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="G128" s="2">
         <v>0</v>
@@ -15971,13 +16079,13 @@
         <v>0</v>
       </c>
       <c r="J128" s="2">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="K128" s="2">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="L128" s="2">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="M128" s="2">
         <v>16</v>
@@ -15985,22 +16093,22 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A129" s="2">
-        <v>41003</v>
+        <v>23004</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D129" s="2">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="E129" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F129" s="2">
-        <v>0</v>
+        <v>1417</v>
       </c>
       <c r="G129" s="2">
         <v>0</v>
@@ -16012,13 +16120,13 @@
         <v>0</v>
       </c>
       <c r="J129" s="2">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="K129" s="2">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="L129" s="2">
-        <v>0</v>
+        <v>1417</v>
       </c>
       <c r="M129" s="2">
         <v>16</v>
@@ -16026,22 +16134,22 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A130" s="2">
-        <v>39015</v>
+        <v>23002</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="D130" s="2">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="E130" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F130" s="2">
-        <v>0</v>
+        <v>1417</v>
       </c>
       <c r="G130" s="2">
         <v>0</v>
@@ -16053,13 +16161,13 @@
         <v>0</v>
       </c>
       <c r="J130" s="2">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="K130" s="2">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="L130" s="2">
-        <v>0</v>
+        <v>1417</v>
       </c>
       <c r="M130" s="2">
         <v>16</v>
@@ -16067,19 +16175,19 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A131" s="2">
-        <v>39001</v>
+        <v>40002</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D131" s="2">
         <v>0</v>
       </c>
       <c r="E131" s="2">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="F131" s="2">
         <v>0</v>
@@ -16108,19 +16216,19 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A132" s="2">
-        <v>39010</v>
+        <v>40001</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D132" s="2">
         <v>0</v>
       </c>
       <c r="E132" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F132" s="2">
         <v>0</v>
@@ -16149,19 +16257,19 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A133" s="2">
-        <v>39009</v>
+        <v>40003</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D133" s="2">
         <v>0</v>
       </c>
       <c r="E133" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F133" s="2">
         <v>0</v>
@@ -16190,19 +16298,19 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A134" s="2">
-        <v>39014</v>
+        <v>41002</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D134" s="2">
         <v>0</v>
       </c>
       <c r="E134" s="2">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="F134" s="2">
         <v>0</v>
@@ -16231,19 +16339,19 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A135" s="2">
-        <v>39011</v>
+        <v>41001</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D135" s="2">
         <v>0</v>
       </c>
       <c r="E135" s="2">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F135" s="2">
         <v>0</v>
@@ -16272,19 +16380,19 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A136" s="2">
-        <v>39007</v>
+        <v>41004</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D136" s="2">
         <v>0</v>
       </c>
       <c r="E136" s="2">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F136" s="2">
         <v>0</v>
@@ -16313,19 +16421,19 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A137" s="2">
-        <v>39005</v>
+        <v>41003</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D137" s="2">
         <v>0</v>
       </c>
       <c r="E137" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F137" s="2">
         <v>0</v>
@@ -16354,10 +16462,10 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A138" s="2">
-        <v>39006</v>
+        <v>39016</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>165</v>
+        <v>276</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>157</v>
@@ -16366,7 +16474,7 @@
         <v>0</v>
       </c>
       <c r="E138" s="2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F138" s="2">
         <v>0</v>
@@ -16395,10 +16503,10 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A139" s="2">
-        <v>39003</v>
+        <v>39015</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>157</v>
@@ -16407,7 +16515,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="2">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F139" s="2">
         <v>0</v>
@@ -16436,10 +16544,10 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A140" s="2">
-        <v>39004</v>
+        <v>39001</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>157</v>
@@ -16448,7 +16556,7 @@
         <v>0</v>
       </c>
       <c r="E140" s="2">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="F140" s="2">
         <v>0</v>
@@ -16477,10 +16585,10 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A141" s="2">
-        <v>39008</v>
+        <v>39010</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>157</v>
@@ -16489,7 +16597,7 @@
         <v>0</v>
       </c>
       <c r="E141" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F141" s="2">
         <v>0</v>
@@ -16518,10 +16626,10 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A142" s="2">
-        <v>39012</v>
+        <v>39009</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>157</v>
@@ -16530,7 +16638,7 @@
         <v>0</v>
       </c>
       <c r="E142" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F142" s="2">
         <v>0</v>
@@ -16559,10 +16667,10 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A143" s="2">
-        <v>39002</v>
+        <v>39014</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>157</v>
@@ -16571,7 +16679,7 @@
         <v>0</v>
       </c>
       <c r="E143" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F143" s="2">
         <v>0</v>
@@ -16600,19 +16708,19 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A144" s="2">
-        <v>38001</v>
+        <v>39011</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D144" s="2">
         <v>0</v>
       </c>
       <c r="E144" s="2">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="F144" s="2">
         <v>0</v>
@@ -16641,19 +16749,19 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A145" s="2">
-        <v>38002</v>
+        <v>39007</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D145" s="2">
         <v>0</v>
       </c>
       <c r="E145" s="2">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F145" s="2">
         <v>0</v>
@@ -16682,19 +16790,19 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A146" s="2">
-        <v>38005</v>
+        <v>39005</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D146" s="2">
         <v>0</v>
       </c>
       <c r="E146" s="2">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F146" s="2">
         <v>0</v>
@@ -16723,19 +16831,19 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A147" s="2">
-        <v>38003</v>
+        <v>39006</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D147" s="2">
         <v>0</v>
       </c>
       <c r="E147" s="2">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F147" s="2">
         <v>0</v>
@@ -16764,19 +16872,19 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A148" s="2">
-        <v>38004</v>
+        <v>39003</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D148" s="2">
         <v>0</v>
       </c>
       <c r="E148" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F148" s="2">
         <v>0</v>
@@ -16805,19 +16913,19 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A149" s="2">
-        <v>38010</v>
+        <v>39004</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D149" s="2">
         <v>0</v>
       </c>
       <c r="E149" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F149" s="2">
         <v>0</v>
@@ -16846,19 +16954,19 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A150" s="2">
-        <v>38007</v>
+        <v>39008</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D150" s="2">
         <v>0</v>
       </c>
       <c r="E150" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F150" s="2">
         <v>0</v>
@@ -16887,19 +16995,19 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A151" s="2">
-        <v>38008</v>
+        <v>39012</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D151" s="2">
         <v>0</v>
       </c>
       <c r="E151" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F151" s="2">
         <v>0</v>
@@ -16928,19 +17036,19 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A152" s="2">
-        <v>38006</v>
+        <v>39002</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D152" s="2">
         <v>0</v>
       </c>
       <c r="E152" s="2">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="F152" s="2">
         <v>0</v>
@@ -16969,22 +17077,22 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A153" s="2">
-        <v>21002</v>
+        <v>38001</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D153" s="2">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="E153" s="2">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="F153" s="2">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="G153" s="2">
         <v>0</v>
@@ -16996,13 +17104,13 @@
         <v>0</v>
       </c>
       <c r="J153" s="2">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="K153" s="2">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="L153" s="2">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="M153" s="2">
         <v>16</v>
@@ -17010,22 +17118,22 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A154" s="2">
-        <v>21001</v>
+        <v>38002</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D154" s="2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E154" s="2">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="F154" s="2">
-        <v>891</v>
+        <v>0</v>
       </c>
       <c r="G154" s="2">
         <v>0</v>
@@ -17037,13 +17145,13 @@
         <v>0</v>
       </c>
       <c r="J154" s="2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K154" s="2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="L154" s="2">
-        <v>891</v>
+        <v>0</v>
       </c>
       <c r="M154" s="2">
         <v>16</v>
@@ -17051,22 +17159,22 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A155" s="2">
-        <v>12002</v>
+        <v>38005</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D155" s="2">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="E155" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="F155" s="2">
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="G155" s="2">
         <v>0</v>
@@ -17078,13 +17186,13 @@
         <v>0</v>
       </c>
       <c r="J155" s="2">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="K155" s="2">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="L155" s="2">
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="M155" s="2">
         <v>16</v>
@@ -17092,22 +17200,22 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A156" s="2">
-        <v>12003</v>
+        <v>38003</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D156" s="2">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="E156" s="2">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F156" s="2">
-        <v>5310</v>
+        <v>0</v>
       </c>
       <c r="G156" s="2">
         <v>0</v>
@@ -17119,13 +17227,13 @@
         <v>0</v>
       </c>
       <c r="J156" s="2">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="K156" s="2">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="L156" s="2">
-        <v>5310</v>
+        <v>0</v>
       </c>
       <c r="M156" s="2">
         <v>16</v>
@@ -17133,22 +17241,22 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A157" s="2">
-        <v>12001</v>
+        <v>38004</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D157" s="2">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="E157" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F157" s="2">
-        <v>2405</v>
+        <v>0</v>
       </c>
       <c r="G157" s="2">
         <v>0</v>
@@ -17160,13 +17268,13 @@
         <v>0</v>
       </c>
       <c r="J157" s="2">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="K157" s="2">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="L157" s="2">
-        <v>2405</v>
+        <v>0</v>
       </c>
       <c r="M157" s="2">
         <v>16</v>
@@ -17174,22 +17282,22 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A158" s="2">
-        <v>12005</v>
+        <v>38010</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D158" s="2">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="E158" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F158" s="2">
-        <v>1880</v>
+        <v>0</v>
       </c>
       <c r="G158" s="2">
         <v>0</v>
@@ -17201,13 +17309,13 @@
         <v>0</v>
       </c>
       <c r="J158" s="2">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="K158" s="2">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="L158" s="2">
-        <v>1880</v>
+        <v>0</v>
       </c>
       <c r="M158" s="2">
         <v>16</v>
@@ -17215,22 +17323,22 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A159" s="2">
-        <v>12004</v>
+        <v>38007</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D159" s="2">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="E159" s="2">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F159" s="2">
-        <v>6510</v>
+        <v>0</v>
       </c>
       <c r="G159" s="2">
         <v>0</v>
@@ -17242,13 +17350,13 @@
         <v>0</v>
       </c>
       <c r="J159" s="2">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="K159" s="2">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="L159" s="2">
-        <v>6510</v>
+        <v>0</v>
       </c>
       <c r="M159" s="2">
         <v>16</v>
@@ -17256,22 +17364,22 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A160" s="2">
-        <v>11003</v>
+        <v>38008</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="D160" s="2">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="E160" s="2">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F160" s="2">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="G160" s="2">
         <v>0</v>
@@ -17283,13 +17391,13 @@
         <v>0</v>
       </c>
       <c r="J160" s="2">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="K160" s="2">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="L160" s="2">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="M160" s="2">
         <v>16</v>
@@ -17297,22 +17405,22 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A161" s="2">
-        <v>11001</v>
+        <v>38006</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="D161" s="2">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="E161" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F161" s="2">
-        <v>10780</v>
+        <v>0</v>
       </c>
       <c r="G161" s="2">
         <v>0</v>
@@ -17324,13 +17432,13 @@
         <v>0</v>
       </c>
       <c r="J161" s="2">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="K161" s="2">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="L161" s="2">
-        <v>10780</v>
+        <v>0</v>
       </c>
       <c r="M161" s="2">
         <v>16</v>
@@ -17338,22 +17446,22 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A162" s="2">
-        <v>11002</v>
+        <v>21002</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D162" s="2">
-        <v>599</v>
+        <v>135</v>
       </c>
       <c r="E162" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F162" s="2">
-        <v>5391</v>
+        <v>405</v>
       </c>
       <c r="G162" s="2">
         <v>0</v>
@@ -17365,13 +17473,13 @@
         <v>0</v>
       </c>
       <c r="J162" s="2">
-        <v>599</v>
+        <v>135</v>
       </c>
       <c r="K162" s="2">
-        <v>599</v>
+        <v>135</v>
       </c>
       <c r="L162" s="2">
-        <v>5391</v>
+        <v>405</v>
       </c>
       <c r="M162" s="2">
         <v>16</v>
@@ -17379,22 +17487,22 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A163" s="2">
-        <v>11004</v>
+        <v>21001</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D163" s="2">
-        <v>669</v>
+        <v>99</v>
       </c>
       <c r="E163" s="2">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F163" s="2">
-        <v>14049</v>
+        <v>990</v>
       </c>
       <c r="G163" s="2">
         <v>0</v>
@@ -17406,13 +17514,13 @@
         <v>0</v>
       </c>
       <c r="J163" s="2">
-        <v>669</v>
+        <v>99</v>
       </c>
       <c r="K163" s="2">
-        <v>669</v>
+        <v>99</v>
       </c>
       <c r="L163" s="2">
-        <v>14049</v>
+        <v>990</v>
       </c>
       <c r="M163" s="2">
         <v>16</v>
@@ -17420,22 +17528,22 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A164" s="2">
-        <v>20004</v>
+        <v>12002</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D164" s="2">
-        <v>80</v>
+        <v>285</v>
       </c>
       <c r="E164" s="2">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F164" s="2">
-        <v>1920</v>
+        <v>14535</v>
       </c>
       <c r="G164" s="2">
         <v>0</v>
@@ -17447,13 +17555,13 @@
         <v>0</v>
       </c>
       <c r="J164" s="2">
-        <v>80</v>
+        <v>285</v>
       </c>
       <c r="K164" s="2">
-        <v>80</v>
+        <v>285</v>
       </c>
       <c r="L164" s="2">
-        <v>1920</v>
+        <v>14535</v>
       </c>
       <c r="M164" s="2">
         <v>16</v>
@@ -17461,22 +17569,22 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A165" s="2">
-        <v>20002</v>
+        <v>12003</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D165" s="2">
-        <v>115</v>
+        <v>295</v>
       </c>
       <c r="E165" s="2">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F165" s="2">
-        <v>690</v>
+        <v>7965</v>
       </c>
       <c r="G165" s="2">
         <v>0</v>
@@ -17488,13 +17596,13 @@
         <v>0</v>
       </c>
       <c r="J165" s="2">
-        <v>115</v>
+        <v>295</v>
       </c>
       <c r="K165" s="2">
-        <v>115</v>
+        <v>295</v>
       </c>
       <c r="L165" s="2">
-        <v>690</v>
+        <v>7965</v>
       </c>
       <c r="M165" s="2">
         <v>16</v>
@@ -17502,22 +17610,22 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A166" s="2">
-        <v>20001</v>
+        <v>12001</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D166" s="2">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="E166" s="2">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F166" s="2">
-        <v>760</v>
+        <v>4440</v>
       </c>
       <c r="G166" s="2">
         <v>0</v>
@@ -17529,13 +17637,13 @@
         <v>0</v>
       </c>
       <c r="J166" s="2">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="K166" s="2">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="L166" s="2">
-        <v>760</v>
+        <v>4440</v>
       </c>
       <c r="M166" s="2">
         <v>16</v>
@@ -17543,22 +17651,22 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A167" s="2">
-        <v>20003</v>
+        <v>12005</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D167" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="E167" s="2">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F167" s="2">
-        <v>1600</v>
+        <v>2115</v>
       </c>
       <c r="G167" s="2">
         <v>0</v>
@@ -17570,13 +17678,13 @@
         <v>0</v>
       </c>
       <c r="J167" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="K167" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="L167" s="2">
-        <v>1600</v>
+        <v>2115</v>
       </c>
       <c r="M167" s="2">
         <v>16</v>
@@ -17584,22 +17692,22 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A168" s="2">
-        <v>13001</v>
+        <v>12004</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="D168" s="2">
-        <v>110</v>
+        <v>465</v>
       </c>
       <c r="E168" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F168" s="2">
-        <v>1870</v>
+        <v>9300</v>
       </c>
       <c r="G168" s="2">
         <v>0</v>
@@ -17611,13 +17719,13 @@
         <v>0</v>
       </c>
       <c r="J168" s="2">
-        <v>110</v>
+        <v>465</v>
       </c>
       <c r="K168" s="2">
-        <v>110</v>
+        <v>465</v>
       </c>
       <c r="L168" s="2">
-        <v>1870</v>
+        <v>9300</v>
       </c>
       <c r="M168" s="2">
         <v>16</v>
@@ -17625,22 +17733,22 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A169" s="2">
-        <v>13007</v>
+        <v>11003</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D169" s="2">
-        <v>90</v>
+        <v>850</v>
       </c>
       <c r="E169" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F169" s="2">
-        <v>90</v>
+        <v>8500</v>
       </c>
       <c r="G169" s="2">
         <v>0</v>
@@ -17652,13 +17760,13 @@
         <v>0</v>
       </c>
       <c r="J169" s="2">
-        <v>90</v>
+        <v>850</v>
       </c>
       <c r="K169" s="2">
-        <v>90</v>
+        <v>850</v>
       </c>
       <c r="L169" s="2">
-        <v>90</v>
+        <v>8500</v>
       </c>
       <c r="M169" s="2">
         <v>16</v>
@@ -17666,22 +17774,22 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A170" s="2">
-        <v>13005</v>
+        <v>11001</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D170" s="2">
-        <v>15</v>
+        <v>539</v>
       </c>
       <c r="E170" s="2">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F170" s="2">
-        <v>120</v>
+        <v>16170</v>
       </c>
       <c r="G170" s="2">
         <v>0</v>
@@ -17693,13 +17801,13 @@
         <v>0</v>
       </c>
       <c r="J170" s="2">
-        <v>15</v>
+        <v>539</v>
       </c>
       <c r="K170" s="2">
-        <v>60</v>
+        <v>539</v>
       </c>
       <c r="L170" s="2">
-        <v>480</v>
+        <v>16170</v>
       </c>
       <c r="M170" s="2">
         <v>16</v>
@@ -17707,22 +17815,22 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A171" s="2">
-        <v>13004</v>
+        <v>11002</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D171" s="2">
-        <v>99</v>
+        <v>599</v>
       </c>
       <c r="E171" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F171" s="2">
-        <v>990</v>
+        <v>7787</v>
       </c>
       <c r="G171" s="2">
         <v>0</v>
@@ -17734,13 +17842,13 @@
         <v>0</v>
       </c>
       <c r="J171" s="2">
-        <v>99</v>
+        <v>599</v>
       </c>
       <c r="K171" s="2">
-        <v>99</v>
+        <v>599</v>
       </c>
       <c r="L171" s="2">
-        <v>990</v>
+        <v>7787</v>
       </c>
       <c r="M171" s="2">
         <v>16</v>
@@ -17748,22 +17856,22 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A172" s="2">
-        <v>13002</v>
+        <v>11004</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D172" s="2">
-        <v>99</v>
+        <v>669</v>
       </c>
       <c r="E172" s="2">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F172" s="2">
-        <v>396</v>
+        <v>19401</v>
       </c>
       <c r="G172" s="2">
         <v>0</v>
@@ -17775,13 +17883,13 @@
         <v>0</v>
       </c>
       <c r="J172" s="2">
-        <v>99</v>
+        <v>669</v>
       </c>
       <c r="K172" s="2">
-        <v>99</v>
+        <v>669</v>
       </c>
       <c r="L172" s="2">
-        <v>396</v>
+        <v>19401</v>
       </c>
       <c r="M172" s="2">
         <v>16</v>
@@ -17789,22 +17897,22 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A173" s="2">
-        <v>13003</v>
+        <v>20004</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D173" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="E173" s="2">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F173" s="2">
-        <v>2970</v>
+        <v>3040</v>
       </c>
       <c r="G173" s="2">
         <v>0</v>
@@ -17816,13 +17924,13 @@
         <v>0</v>
       </c>
       <c r="J173" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K173" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="L173" s="2">
-        <v>2970</v>
+        <v>3040</v>
       </c>
       <c r="M173" s="2">
         <v>16</v>
@@ -17830,22 +17938,22 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A174" s="2">
-        <v>17006</v>
+        <v>20002</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D174" s="2">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="E174" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F174" s="2">
-        <v>70</v>
+        <v>1035</v>
       </c>
       <c r="G174" s="2">
         <v>0</v>
@@ -17857,13 +17965,13 @@
         <v>0</v>
       </c>
       <c r="J174" s="2">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="K174" s="2">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="L174" s="2">
-        <v>70</v>
+        <v>1035</v>
       </c>
       <c r="M174" s="2">
         <v>16</v>
@@ -17871,22 +17979,22 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A175" s="2">
-        <v>17005</v>
+        <v>20001</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D175" s="2">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="E175" s="2">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F175" s="2">
-        <v>380</v>
+        <v>855</v>
       </c>
       <c r="G175" s="2">
         <v>0</v>
@@ -17898,13 +18006,13 @@
         <v>0</v>
       </c>
       <c r="J175" s="2">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="K175" s="2">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="L175" s="2">
-        <v>380</v>
+        <v>855</v>
       </c>
       <c r="M175" s="2">
         <v>16</v>
@@ -17912,22 +18020,22 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A176" s="2">
-        <v>17002</v>
+        <v>20003</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D176" s="2">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="E176" s="2">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F176" s="2">
-        <v>825</v>
+        <v>2640</v>
       </c>
       <c r="G176" s="2">
         <v>0</v>
@@ -17939,13 +18047,13 @@
         <v>0</v>
       </c>
       <c r="J176" s="2">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="K176" s="2">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="L176" s="2">
-        <v>825</v>
+        <v>2640</v>
       </c>
       <c r="M176" s="2">
         <v>16</v>
@@ -17953,22 +18061,22 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A177" s="2">
-        <v>17004</v>
+        <v>13001</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D177" s="2">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="E177" s="2">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F177" s="2">
-        <v>1980</v>
+        <v>3520</v>
       </c>
       <c r="G177" s="2">
         <v>0</v>
@@ -17980,13 +18088,13 @@
         <v>0</v>
       </c>
       <c r="J177" s="2">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="K177" s="2">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="L177" s="2">
-        <v>1980</v>
+        <v>3520</v>
       </c>
       <c r="M177" s="2">
         <v>16</v>
@@ -17994,22 +18102,22 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A178" s="2">
-        <v>17007</v>
+        <v>13007</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D178" s="2">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="E178" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F178" s="2">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="G178" s="2">
         <v>0</v>
@@ -18021,13 +18129,13 @@
         <v>0</v>
       </c>
       <c r="J178" s="2">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="K178" s="2">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="L178" s="2">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="M178" s="2">
         <v>16</v>
@@ -18035,22 +18143,22 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A179" s="2">
-        <v>17010</v>
+        <v>13005</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D179" s="2">
-        <v>55</v>
+        <v>13.8462</v>
       </c>
       <c r="E179" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F179" s="2">
-        <v>660</v>
+        <v>180.00059999999999</v>
       </c>
       <c r="G179" s="2">
         <v>0</v>
@@ -18062,13 +18170,13 @@
         <v>0</v>
       </c>
       <c r="J179" s="2">
-        <v>55</v>
+        <v>13.8462</v>
       </c>
       <c r="K179" s="2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L179" s="2">
-        <v>660</v>
+        <v>780</v>
       </c>
       <c r="M179" s="2">
         <v>16</v>
@@ -18076,22 +18184,22 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A180" s="2">
-        <v>17009</v>
+        <v>13004</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D180" s="2">
-        <v>29.387799999999999</v>
+        <v>99</v>
       </c>
       <c r="E180" s="2">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F180" s="2">
-        <v>1440.0021999999999</v>
+        <v>1386</v>
       </c>
       <c r="G180" s="2">
         <v>0</v>
@@ -18103,13 +18211,13 @@
         <v>0</v>
       </c>
       <c r="J180" s="2">
-        <v>29.387799999999999</v>
+        <v>99</v>
       </c>
       <c r="K180" s="2">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="L180" s="2">
-        <v>1470</v>
+        <v>1386</v>
       </c>
       <c r="M180" s="2">
         <v>16</v>
@@ -18117,22 +18225,22 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A181" s="2">
-        <v>17012</v>
+        <v>13002</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D181" s="2">
-        <v>292.5</v>
+        <v>99</v>
       </c>
       <c r="E181" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F181" s="2">
-        <v>585</v>
+        <v>792</v>
       </c>
       <c r="G181" s="2">
         <v>0</v>
@@ -18144,13 +18252,13 @@
         <v>0</v>
       </c>
       <c r="J181" s="2">
-        <v>292.5</v>
+        <v>99</v>
       </c>
       <c r="K181" s="2">
-        <v>292.5</v>
+        <v>99</v>
       </c>
       <c r="L181" s="2">
-        <v>585</v>
+        <v>792</v>
       </c>
       <c r="M181" s="2">
         <v>16</v>
@@ -18158,22 +18266,22 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A182" s="2">
-        <v>17001</v>
+        <v>13003</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D182" s="2">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="E182" s="2">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F182" s="2">
-        <v>550</v>
+        <v>4180</v>
       </c>
       <c r="G182" s="2">
         <v>0</v>
@@ -18185,13 +18293,13 @@
         <v>0</v>
       </c>
       <c r="J182" s="2">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="K182" s="2">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="L182" s="2">
-        <v>550</v>
+        <v>4180</v>
       </c>
       <c r="M182" s="2">
         <v>16</v>
@@ -18199,22 +18307,22 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A183" s="2">
-        <v>17003</v>
+        <v>17006</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>205</v>
       </c>
       <c r="D183" s="2">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E183" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F183" s="2">
-        <v>420</v>
+        <v>140</v>
       </c>
       <c r="G183" s="2">
         <v>0</v>
@@ -18226,13 +18334,13 @@
         <v>0</v>
       </c>
       <c r="J183" s="2">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="K183" s="2">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="L183" s="2">
-        <v>420</v>
+        <v>140</v>
       </c>
       <c r="M183" s="2">
         <v>16</v>
@@ -18240,22 +18348,22 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A184" s="2">
-        <v>6002</v>
+        <v>17005</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D184" s="2">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="E184" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F184" s="2">
-        <v>2873</v>
+        <v>480</v>
       </c>
       <c r="G184" s="2">
         <v>0</v>
@@ -18267,13 +18375,13 @@
         <v>0</v>
       </c>
       <c r="J184" s="2">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="K184" s="2">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="L184" s="2">
-        <v>2873</v>
+        <v>480</v>
       </c>
       <c r="M184" s="2">
         <v>16</v>
@@ -18281,22 +18389,22 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A185" s="2">
-        <v>6004</v>
+        <v>17002</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D185" s="2">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="E185" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F185" s="2">
-        <v>318</v>
+        <v>880</v>
       </c>
       <c r="G185" s="2">
         <v>0</v>
@@ -18308,13 +18416,13 @@
         <v>0</v>
       </c>
       <c r="J185" s="2">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="K185" s="2">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="L185" s="2">
-        <v>318</v>
+        <v>880</v>
       </c>
       <c r="M185" s="2">
         <v>16</v>
@@ -18322,22 +18430,22 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A186" s="2">
-        <v>6005</v>
+        <v>17004</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D186" s="2">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="E186" s="2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F186" s="2">
-        <v>159</v>
+        <v>2475</v>
       </c>
       <c r="G186" s="2">
         <v>0</v>
@@ -18349,13 +18457,13 @@
         <v>0</v>
       </c>
       <c r="J186" s="2">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="K186" s="2">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="L186" s="2">
-        <v>159</v>
+        <v>2475</v>
       </c>
       <c r="M186" s="2">
         <v>16</v>
@@ -18363,22 +18471,22 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A187" s="2">
-        <v>6003</v>
+        <v>17007</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D187" s="2">
-        <v>195</v>
+        <v>25</v>
       </c>
       <c r="E187" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F187" s="2">
-        <v>2145</v>
+        <v>400</v>
       </c>
       <c r="G187" s="2">
         <v>0</v>
@@ -18390,13 +18498,13 @@
         <v>0</v>
       </c>
       <c r="J187" s="2">
-        <v>195</v>
+        <v>25</v>
       </c>
       <c r="K187" s="2">
-        <v>195</v>
+        <v>25</v>
       </c>
       <c r="L187" s="2">
-        <v>2145</v>
+        <v>400</v>
       </c>
       <c r="M187" s="2">
         <v>16</v>
@@ -18404,22 +18512,22 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A188" s="2">
-        <v>6006</v>
+        <v>17010</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D188" s="2">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="E188" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F188" s="2">
-        <v>477</v>
+        <v>1100</v>
       </c>
       <c r="G188" s="2">
         <v>0</v>
@@ -18431,13 +18539,13 @@
         <v>0</v>
       </c>
       <c r="J188" s="2">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="K188" s="2">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="L188" s="2">
-        <v>477</v>
+        <v>1100</v>
       </c>
       <c r="M188" s="2">
         <v>16</v>
@@ -18445,22 +18553,22 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A189" s="2">
-        <v>6001</v>
+        <v>17009</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D189" s="2">
-        <v>181.07140000000001</v>
+        <v>29.523800000000001</v>
       </c>
       <c r="E189" s="2">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F189" s="2">
-        <v>2534.9996000000001</v>
+        <v>1859.9993999999999</v>
       </c>
       <c r="G189" s="2">
         <v>0</v>
@@ -18472,13 +18580,13 @@
         <v>0</v>
       </c>
       <c r="J189" s="2">
-        <v>181.07140000000001</v>
+        <v>29.523800000000001</v>
       </c>
       <c r="K189" s="2">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="L189" s="2">
-        <v>2730</v>
+        <v>1890</v>
       </c>
       <c r="M189" s="2">
         <v>16</v>
@@ -18486,22 +18594,22 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A190" s="2">
-        <v>6007</v>
+        <v>17012</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D190" s="2">
-        <v>135</v>
+        <v>306.25</v>
       </c>
       <c r="E190" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F190" s="2">
-        <v>405</v>
+        <v>1225</v>
       </c>
       <c r="G190" s="2">
         <v>0</v>
@@ -18513,13 +18621,13 @@
         <v>0</v>
       </c>
       <c r="J190" s="2">
-        <v>135</v>
+        <v>306.25</v>
       </c>
       <c r="K190" s="2">
-        <v>135</v>
+        <v>306.25</v>
       </c>
       <c r="L190" s="2">
-        <v>405</v>
+        <v>1225</v>
       </c>
       <c r="M190" s="2">
         <v>16</v>
@@ -18527,22 +18635,22 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A191" s="2">
-        <v>32003</v>
+        <v>17001</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="D191" s="2">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="E191" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" s="2">
-        <v>1050</v>
+        <v>605</v>
       </c>
       <c r="G191" s="2">
         <v>0</v>
@@ -18554,13 +18662,13 @@
         <v>0</v>
       </c>
       <c r="J191" s="2">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="K191" s="2">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="L191" s="2">
-        <v>1050</v>
+        <v>605</v>
       </c>
       <c r="M191" s="2">
         <v>16</v>
@@ -18568,22 +18676,22 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A192" s="2">
-        <v>3004</v>
+        <v>17003</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="D192" s="2">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="E192" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F192" s="2">
-        <v>238</v>
+        <v>560</v>
       </c>
       <c r="G192" s="2">
         <v>0</v>
@@ -18595,13 +18703,13 @@
         <v>0</v>
       </c>
       <c r="J192" s="2">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="K192" s="2">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="L192" s="2">
-        <v>238</v>
+        <v>560</v>
       </c>
       <c r="M192" s="2">
         <v>16</v>
@@ -18609,22 +18717,22 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A193" s="2">
-        <v>3002</v>
+        <v>6002</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D193" s="2">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="E193" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F193" s="2">
-        <v>1260</v>
+        <v>4056</v>
       </c>
       <c r="G193" s="2">
         <v>0</v>
@@ -18636,13 +18744,13 @@
         <v>0</v>
       </c>
       <c r="J193" s="2">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="K193" s="2">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="L193" s="2">
-        <v>1260</v>
+        <v>4056</v>
       </c>
       <c r="M193" s="2">
         <v>16</v>
@@ -18650,22 +18758,22 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A194" s="2">
-        <v>3003</v>
+        <v>6004</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D194" s="2">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="E194" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F194" s="2">
-        <v>495</v>
+        <v>636</v>
       </c>
       <c r="G194" s="2">
         <v>0</v>
@@ -18677,13 +18785,13 @@
         <v>0</v>
       </c>
       <c r="J194" s="2">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="K194" s="2">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="L194" s="2">
-        <v>495</v>
+        <v>636</v>
       </c>
       <c r="M194" s="2">
         <v>16</v>
@@ -18691,22 +18799,22 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A195" s="2">
-        <v>3001</v>
+        <v>6005</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D195" s="2">
-        <v>116.2955</v>
+        <v>159</v>
       </c>
       <c r="E195" s="2">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="F195" s="2">
-        <v>5117.0020000000004</v>
+        <v>318</v>
       </c>
       <c r="G195" s="2">
         <v>0</v>
@@ -18718,13 +18826,13 @@
         <v>0</v>
       </c>
       <c r="J195" s="2">
-        <v>116.2955</v>
+        <v>159</v>
       </c>
       <c r="K195" s="2">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="L195" s="2">
-        <v>5236</v>
+        <v>318</v>
       </c>
       <c r="M195" s="2">
         <v>16</v>
@@ -18732,22 +18840,22 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A196" s="2">
-        <v>7008</v>
+        <v>6003</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D196" s="2">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="E196" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F196" s="2">
-        <v>833</v>
+        <v>3705</v>
       </c>
       <c r="G196" s="2">
         <v>0</v>
@@ -18759,13 +18867,13 @@
         <v>0</v>
       </c>
       <c r="J196" s="2">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="K196" s="2">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="L196" s="2">
-        <v>833</v>
+        <v>3705</v>
       </c>
       <c r="M196" s="2">
         <v>16</v>
@@ -18773,22 +18881,22 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A197" s="2">
-        <v>7001</v>
+        <v>6006</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D197" s="2">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="E197" s="2">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F197" s="2">
-        <v>1568</v>
+        <v>1113</v>
       </c>
       <c r="G197" s="2">
         <v>0</v>
@@ -18800,13 +18908,13 @@
         <v>0</v>
       </c>
       <c r="J197" s="2">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="K197" s="2">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="L197" s="2">
-        <v>1568</v>
+        <v>1113</v>
       </c>
       <c r="M197" s="2">
         <v>16</v>
@@ -18814,22 +18922,22 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A198" s="2">
-        <v>7002</v>
+        <v>6001</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D198" s="2">
-        <v>42</v>
+        <v>186.52170000000001</v>
       </c>
       <c r="E198" s="2">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="F198" s="2">
-        <v>2268</v>
+        <v>4289.9991</v>
       </c>
       <c r="G198" s="2">
         <v>0</v>
@@ -18841,13 +18949,13 @@
         <v>0</v>
       </c>
       <c r="J198" s="2">
-        <v>42</v>
+        <v>186.52170000000001</v>
       </c>
       <c r="K198" s="2">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="L198" s="2">
-        <v>2268</v>
+        <v>4485</v>
       </c>
       <c r="M198" s="2">
         <v>16</v>
@@ -18855,22 +18963,22 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A199" s="2">
-        <v>7004</v>
+        <v>6007</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D199" s="2">
-        <v>30.4</v>
+        <v>135</v>
       </c>
       <c r="E199" s="2">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F199" s="2">
-        <v>760</v>
+        <v>540</v>
       </c>
       <c r="G199" s="2">
         <v>0</v>
@@ -18882,13 +18990,13 @@
         <v>0</v>
       </c>
       <c r="J199" s="2">
-        <v>30.4</v>
+        <v>135</v>
       </c>
       <c r="K199" s="2">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="L199" s="2">
-        <v>950</v>
+        <v>540</v>
       </c>
       <c r="M199" s="2">
         <v>16</v>
@@ -18896,22 +19004,22 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A200" s="2">
-        <v>7011</v>
+        <v>32003</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D200" s="2">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="E200" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F200" s="2">
-        <v>295</v>
+        <v>1155</v>
       </c>
       <c r="G200" s="2">
         <v>0</v>
@@ -18923,13 +19031,13 @@
         <v>0</v>
       </c>
       <c r="J200" s="2">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="K200" s="2">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="L200" s="2">
-        <v>295</v>
+        <v>1155</v>
       </c>
       <c r="M200" s="2">
         <v>16</v>
@@ -18937,22 +19045,22 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A201" s="2">
-        <v>7005</v>
+        <v>3004</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D201" s="2">
-        <v>31.090900000000001</v>
+        <v>119</v>
       </c>
       <c r="E201" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F201" s="2">
-        <v>341.99990000000003</v>
+        <v>1071</v>
       </c>
       <c r="G201" s="2">
         <v>0</v>
@@ -18964,13 +19072,13 @@
         <v>0</v>
       </c>
       <c r="J201" s="2">
-        <v>31.090900000000001</v>
+        <v>119</v>
       </c>
       <c r="K201" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="L201" s="2">
-        <v>418</v>
+        <v>1071</v>
       </c>
       <c r="M201" s="2">
         <v>16</v>
@@ -18978,22 +19086,22 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A202" s="2">
-        <v>7003</v>
+        <v>3002</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>230</v>
+        <v>89</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D202" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="E202" s="2">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F202" s="2">
-        <v>336</v>
+        <v>2160</v>
       </c>
       <c r="G202" s="2">
         <v>0</v>
@@ -19005,13 +19113,13 @@
         <v>0</v>
       </c>
       <c r="J202" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="K202" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="L202" s="2">
-        <v>336</v>
+        <v>2160</v>
       </c>
       <c r="M202" s="2">
         <v>16</v>
@@ -19019,22 +19127,22 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A203" s="2">
-        <v>7009</v>
+        <v>3003</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D203" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="E203" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F203" s="2">
-        <v>413</v>
+        <v>990</v>
       </c>
       <c r="G203" s="2">
         <v>0</v>
@@ -19046,13 +19154,13 @@
         <v>0</v>
       </c>
       <c r="J203" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="K203" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="L203" s="2">
-        <v>413</v>
+        <v>990</v>
       </c>
       <c r="M203" s="2">
         <v>16</v>
@@ -19060,22 +19168,22 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A204" s="2">
-        <v>7010</v>
+        <v>3001</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D204" s="2">
-        <v>55</v>
+        <v>116.9123</v>
       </c>
       <c r="E204" s="2">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F204" s="2">
-        <v>275</v>
+        <v>6664.0011000000004</v>
       </c>
       <c r="G204" s="2">
         <v>0</v>
@@ -19087,13 +19195,13 @@
         <v>0</v>
       </c>
       <c r="J204" s="2">
-        <v>55</v>
+        <v>116.9123</v>
       </c>
       <c r="K204" s="2">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="L204" s="2">
-        <v>275</v>
+        <v>6783</v>
       </c>
       <c r="M204" s="2">
         <v>16</v>
@@ -19101,22 +19209,22 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A205" s="2">
-        <v>7006</v>
+        <v>7008</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D205" s="2">
-        <v>26.6</v>
+        <v>49</v>
       </c>
       <c r="E205" s="2">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F205" s="2">
-        <v>266</v>
+        <v>1029</v>
       </c>
       <c r="G205" s="2">
         <v>0</v>
@@ -19128,13 +19236,13 @@
         <v>0</v>
       </c>
       <c r="J205" s="2">
-        <v>26.6</v>
+        <v>49</v>
       </c>
       <c r="K205" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="L205" s="2">
-        <v>380</v>
+        <v>1029</v>
       </c>
       <c r="M205" s="2">
         <v>16</v>
@@ -19142,22 +19250,22 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A206" s="2">
-        <v>7007</v>
+        <v>7001</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>234</v>
+        <v>90</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D206" s="2">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E206" s="2">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F206" s="2">
-        <v>385</v>
+        <v>2744</v>
       </c>
       <c r="G206" s="2">
         <v>0</v>
@@ -19169,13 +19277,13 @@
         <v>0</v>
       </c>
       <c r="J206" s="2">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K206" s="2">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="L206" s="2">
-        <v>385</v>
+        <v>2744</v>
       </c>
       <c r="M206" s="2">
         <v>16</v>
@@ -19183,22 +19291,22 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A207" s="2">
-        <v>33001</v>
+        <v>7002</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D207" s="2">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="E207" s="2">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="F207" s="2">
-        <v>1035</v>
+        <v>3276</v>
       </c>
       <c r="G207" s="2">
         <v>0</v>
@@ -19210,13 +19318,13 @@
         <v>0</v>
       </c>
       <c r="J207" s="2">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="K207" s="2">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="L207" s="2">
-        <v>1035</v>
+        <v>3276</v>
       </c>
       <c r="M207" s="2">
         <v>16</v>
@@ -19224,22 +19332,22 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A208" s="2">
-        <v>33003</v>
+        <v>7004</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D208" s="2">
-        <v>165</v>
+        <v>29.4194</v>
       </c>
       <c r="E208" s="2">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F208" s="2">
-        <v>1485</v>
+        <v>912.00139999999999</v>
       </c>
       <c r="G208" s="2">
         <v>0</v>
@@ -19251,13 +19359,13 @@
         <v>0</v>
       </c>
       <c r="J208" s="2">
-        <v>165</v>
+        <v>29.4194</v>
       </c>
       <c r="K208" s="2">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="L208" s="2">
-        <v>1485</v>
+        <v>1178</v>
       </c>
       <c r="M208" s="2">
         <v>16</v>
@@ -19265,22 +19373,22 @@
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A209" s="2">
-        <v>33002</v>
+        <v>7011</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D209" s="2">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="E209" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F209" s="2">
-        <v>240</v>
+        <v>413</v>
       </c>
       <c r="G209" s="2">
         <v>0</v>
@@ -19292,13 +19400,13 @@
         <v>0</v>
       </c>
       <c r="J209" s="2">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="K209" s="2">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="L209" s="2">
-        <v>240</v>
+        <v>413</v>
       </c>
       <c r="M209" s="2">
         <v>16</v>
@@ -19306,22 +19414,22 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A210" s="2">
-        <v>33006</v>
+        <v>7005</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D210" s="2">
-        <v>155</v>
+        <v>32.571399999999997</v>
       </c>
       <c r="E210" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F210" s="2">
-        <v>465</v>
+        <v>455.99959999999999</v>
       </c>
       <c r="G210" s="2">
         <v>0</v>
@@ -19333,13 +19441,13 @@
         <v>0</v>
       </c>
       <c r="J210" s="2">
-        <v>155</v>
+        <v>32.571399999999997</v>
       </c>
       <c r="K210" s="2">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="L210" s="2">
-        <v>465</v>
+        <v>532</v>
       </c>
       <c r="M210" s="2">
         <v>16</v>
@@ -19347,22 +19455,22 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A211" s="2">
-        <v>33005</v>
+        <v>7003</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D211" s="2">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="E211" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F211" s="2">
-        <v>315</v>
+        <v>588</v>
       </c>
       <c r="G211" s="2">
         <v>0</v>
@@ -19374,13 +19482,13 @@
         <v>0</v>
       </c>
       <c r="J211" s="2">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="K211" s="2">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="L211" s="2">
-        <v>315</v>
+        <v>588</v>
       </c>
       <c r="M211" s="2">
         <v>16</v>
@@ -19388,22 +19496,22 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A212" s="2">
-        <v>29005</v>
+        <v>7009</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D212" s="2">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="E212" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F212" s="2">
-        <v>120</v>
+        <v>590</v>
       </c>
       <c r="G212" s="2">
         <v>0</v>
@@ -19415,13 +19523,13 @@
         <v>0</v>
       </c>
       <c r="J212" s="2">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="K212" s="2">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="L212" s="2">
-        <v>120</v>
+        <v>590</v>
       </c>
       <c r="M212" s="2">
         <v>16</v>
@@ -19429,22 +19537,22 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A213" s="2">
-        <v>27003</v>
+        <v>7010</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="D213" s="2">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="E213" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F213" s="2">
-        <v>600</v>
+        <v>330</v>
       </c>
       <c r="G213" s="2">
         <v>0</v>
@@ -19456,13 +19564,13 @@
         <v>0</v>
       </c>
       <c r="J213" s="2">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="K213" s="2">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="L213" s="2">
-        <v>600</v>
+        <v>330</v>
       </c>
       <c r="M213" s="2">
         <v>16</v>
@@ -19470,22 +19578,22 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A214" s="2">
-        <v>26006</v>
+        <v>7006</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="D214" s="2">
-        <v>970</v>
+        <v>29.555599999999998</v>
       </c>
       <c r="E214" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F214" s="2">
-        <v>970</v>
+        <v>532.00080000000003</v>
       </c>
       <c r="G214" s="2">
         <v>0</v>
@@ -19497,13 +19605,13 @@
         <v>0</v>
       </c>
       <c r="J214" s="2">
-        <v>970</v>
+        <v>29.555599999999998</v>
       </c>
       <c r="K214" s="2">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="L214" s="2">
-        <v>970</v>
+        <v>684</v>
       </c>
       <c r="M214" s="2">
         <v>16</v>
@@ -19511,22 +19619,22 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A215" s="2">
-        <v>26011</v>
+        <v>7007</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="D215" s="2">
-        <v>185</v>
+        <v>35</v>
       </c>
       <c r="E215" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F215" s="2">
-        <v>185</v>
+        <v>455</v>
       </c>
       <c r="G215" s="2">
         <v>0</v>
@@ -19538,13 +19646,13 @@
         <v>0</v>
       </c>
       <c r="J215" s="2">
-        <v>185</v>
+        <v>35</v>
       </c>
       <c r="K215" s="2">
-        <v>185</v>
+        <v>35</v>
       </c>
       <c r="L215" s="2">
-        <v>185</v>
+        <v>455</v>
       </c>
       <c r="M215" s="2">
         <v>16</v>
@@ -19552,22 +19660,22 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A216" s="2">
-        <v>30001</v>
+        <v>33001</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="D216" s="2">
         <v>115</v>
       </c>
       <c r="E216" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F216" s="2">
-        <v>115</v>
+        <v>1035</v>
       </c>
       <c r="G216" s="2">
         <v>0</v>
@@ -19585,9 +19693,501 @@
         <v>115</v>
       </c>
       <c r="L216" s="2">
+        <v>1035</v>
+      </c>
+      <c r="M216" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A217">
+        <v>33003</v>
+      </c>
+      <c r="B217" t="s">
+        <v>237</v>
+      </c>
+      <c r="C217" t="s">
+        <v>236</v>
+      </c>
+      <c r="D217">
+        <v>165</v>
+      </c>
+      <c r="E217">
+        <v>9</v>
+      </c>
+      <c r="F217">
+        <v>1485</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>165</v>
+      </c>
+      <c r="K217">
+        <v>165</v>
+      </c>
+      <c r="L217">
+        <v>1485</v>
+      </c>
+      <c r="M217">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A218">
+        <v>33002</v>
+      </c>
+      <c r="B218" t="s">
+        <v>238</v>
+      </c>
+      <c r="C218" t="s">
+        <v>236</v>
+      </c>
+      <c r="D218">
+        <v>120</v>
+      </c>
+      <c r="E218">
+        <v>7</v>
+      </c>
+      <c r="F218">
+        <v>840</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>120</v>
+      </c>
+      <c r="K218">
+        <v>120</v>
+      </c>
+      <c r="L218">
+        <v>840</v>
+      </c>
+      <c r="M218">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A219">
+        <v>33006</v>
+      </c>
+      <c r="B219" t="s">
+        <v>239</v>
+      </c>
+      <c r="C219" t="s">
+        <v>236</v>
+      </c>
+      <c r="D219">
+        <v>155</v>
+      </c>
+      <c r="E219">
+        <v>3</v>
+      </c>
+      <c r="F219">
+        <v>465</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>155</v>
+      </c>
+      <c r="K219">
+        <v>155</v>
+      </c>
+      <c r="L219">
+        <v>465</v>
+      </c>
+      <c r="M219">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A220">
+        <v>33005</v>
+      </c>
+      <c r="B220" t="s">
+        <v>240</v>
+      </c>
+      <c r="C220" t="s">
+        <v>236</v>
+      </c>
+      <c r="D220">
+        <v>105</v>
+      </c>
+      <c r="E220">
+        <v>3</v>
+      </c>
+      <c r="F220">
+        <v>315</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>105</v>
+      </c>
+      <c r="K220">
+        <v>105</v>
+      </c>
+      <c r="L220">
+        <v>315</v>
+      </c>
+      <c r="M220">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A221">
+        <v>29005</v>
+      </c>
+      <c r="B221" t="s">
+        <v>241</v>
+      </c>
+      <c r="C221" t="s">
+        <v>242</v>
+      </c>
+      <c r="D221">
+        <v>120</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>120</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>120</v>
+      </c>
+      <c r="K221">
+        <v>120</v>
+      </c>
+      <c r="L221">
+        <v>120</v>
+      </c>
+      <c r="M221">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A222">
+        <v>27003</v>
+      </c>
+      <c r="B222" t="s">
+        <v>243</v>
+      </c>
+      <c r="C222" t="s">
+        <v>244</v>
+      </c>
+      <c r="D222">
+        <v>120</v>
+      </c>
+      <c r="E222">
+        <v>8</v>
+      </c>
+      <c r="F222">
+        <v>960</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>120</v>
+      </c>
+      <c r="K222">
+        <v>120</v>
+      </c>
+      <c r="L222">
+        <v>960</v>
+      </c>
+      <c r="M222">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A223">
+        <v>26006</v>
+      </c>
+      <c r="B223" t="s">
+        <v>245</v>
+      </c>
+      <c r="C223" t="s">
+        <v>246</v>
+      </c>
+      <c r="D223">
+        <v>970</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>970</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>970</v>
+      </c>
+      <c r="K223">
+        <v>970</v>
+      </c>
+      <c r="L223">
+        <v>970</v>
+      </c>
+      <c r="M223">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A224">
+        <v>26011</v>
+      </c>
+      <c r="B224" t="s">
+        <v>247</v>
+      </c>
+      <c r="C224" t="s">
+        <v>246</v>
+      </c>
+      <c r="D224">
+        <v>185</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>185</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>185</v>
+      </c>
+      <c r="K224">
+        <v>185</v>
+      </c>
+      <c r="L224">
+        <v>185</v>
+      </c>
+      <c r="M224">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A225">
+        <v>26001</v>
+      </c>
+      <c r="B225" t="s">
+        <v>277</v>
+      </c>
+      <c r="C225" t="s">
+        <v>246</v>
+      </c>
+      <c r="D225">
+        <v>155</v>
+      </c>
+      <c r="E225">
+        <v>2</v>
+      </c>
+      <c r="F225">
+        <v>310</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>155</v>
+      </c>
+      <c r="K225">
+        <v>155</v>
+      </c>
+      <c r="L225">
+        <v>310</v>
+      </c>
+      <c r="M225">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A226">
+        <v>30003</v>
+      </c>
+      <c r="B226" t="s">
+        <v>278</v>
+      </c>
+      <c r="C226" t="s">
+        <v>249</v>
+      </c>
+      <c r="D226">
+        <v>95</v>
+      </c>
+      <c r="E226">
+        <v>2</v>
+      </c>
+      <c r="F226">
+        <v>190</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>95</v>
+      </c>
+      <c r="K226">
+        <v>95</v>
+      </c>
+      <c r="L226">
+        <v>190</v>
+      </c>
+      <c r="M226">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A227">
+        <v>30001</v>
+      </c>
+      <c r="B227" t="s">
+        <v>248</v>
+      </c>
+      <c r="C227" t="s">
+        <v>249</v>
+      </c>
+      <c r="D227">
         <v>115</v>
       </c>
-      <c r="M216" s="2">
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>115</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>115</v>
+      </c>
+      <c r="K227">
+        <v>115</v>
+      </c>
+      <c r="L227">
+        <v>115</v>
+      </c>
+      <c r="M227">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A228">
+        <v>28001</v>
+      </c>
+      <c r="B228" t="s">
+        <v>279</v>
+      </c>
+      <c r="C228" t="s">
+        <v>280</v>
+      </c>
+      <c r="D228">
+        <v>115</v>
+      </c>
+      <c r="E228">
+        <v>2</v>
+      </c>
+      <c r="F228">
+        <v>230</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>115</v>
+      </c>
+      <c r="K228">
+        <v>115</v>
+      </c>
+      <c r="L228">
+        <v>230</v>
+      </c>
+      <c r="M228">
         <v>16</v>
       </c>
     </row>
